--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Results_SS.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Results_SS.xlsx
@@ -1552,22 +1552,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>145.8554401782435</v>
+        <v>0.0004754063856582802</v>
       </c>
       <c r="F2">
-        <v>2273986705098288</v>
+        <v>7411912775.99679</v>
       </c>
       <c r="G2">
-        <v>4.239983726111729E-12</v>
+        <v>1.381995307146163E-17</v>
       </c>
       <c r="H2">
-        <v>66.10426468308975</v>
+        <v>0.0002154625806975811</v>
       </c>
       <c r="I2">
-        <v>1.476037588452363E-08</v>
+        <v>4.022886931550652E-14</v>
       </c>
       <c r="J2">
-        <v>2.054579818504954E-08</v>
+        <v>5.600560418136583E-14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1584,22 +1584,22 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0.01729753204993578</v>
+        <v>2.976620439759816E-05</v>
       </c>
       <c r="F3">
-        <v>269680430.5996177</v>
+        <v>464075.6147227552</v>
       </c>
       <c r="G3">
-        <v>5.02835234009761E-16</v>
+        <v>8.652966394650627E-19</v>
       </c>
       <c r="H3">
-        <v>7.839547401151679E-06</v>
+        <v>1.349057019542893E-08</v>
       </c>
       <c r="I3">
-        <v>1.750487157829929E-12</v>
+        <v>2.518815024058934E-15</v>
       </c>
       <c r="J3">
-        <v>2.436601625301726E-15</v>
+        <v>3.506629931285353E-18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1616,22 +1616,22 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>2.67441466226905E-06</v>
+        <v>1.167019264779998E-06</v>
       </c>
       <c r="F4">
-        <v>41.69596539208763</v>
+        <v>18.1946336006406</v>
       </c>
       <c r="G4">
-        <v>7.774461227526309E-20</v>
+        <v>3.392497862732552E-20</v>
       </c>
       <c r="H4">
-        <v>1.21209201721185E-12</v>
+        <v>5.289137674604824E-13</v>
       </c>
       <c r="I4">
-        <v>2.706471944956691E-16</v>
+        <v>9.875312344933233E-17</v>
       </c>
       <c r="J4">
-        <v>3.767290671295347E-22</v>
+        <v>1.374815757360846E-22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1648,22 +1648,22 @@
         <v>500</v>
       </c>
       <c r="E5">
-        <v>7.069466505478127E-07</v>
+        <v>5.76966419364656E-07</v>
       </c>
       <c r="F5">
-        <v>0.01102178487545566</v>
+        <v>0.008995303605542836</v>
       </c>
       <c r="G5">
-        <v>2.055077472522711E-20</v>
+        <v>1.677227963269349E-20</v>
       </c>
       <c r="H5">
-        <v>3.20400723123711E-16</v>
+        <v>2.614913838820592E-16</v>
       </c>
       <c r="I5">
-        <v>7.154205753065352E-17</v>
+        <v>4.88228753005018E-17</v>
       </c>
       <c r="J5">
-        <v>9.958341760857194E-26</v>
+        <v>6.796995977269757E-26</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1680,22 +1680,22 @@
         <v>5000</v>
       </c>
       <c r="E6">
-        <v>0.0005782349195126784</v>
+        <v>0.0008484321961578544</v>
       </c>
       <c r="F6">
-        <v>0.009015080395962809</v>
+        <v>0.01322764191642466</v>
       </c>
       <c r="G6">
-        <v>1.680915463699647E-17</v>
+        <v>2.466372663249577E-17</v>
       </c>
       <c r="H6">
-        <v>2.620662905803142E-16</v>
+        <v>3.845244743146704E-16</v>
       </c>
       <c r="I6">
-        <v>5.851660213108401E-14</v>
+        <v>7.179429846118233E-14</v>
       </c>
       <c r="J6">
-        <v>8.145255292046336E-26</v>
+        <v>9.995018827302558E-26</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1712,22 +1712,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>6595.572174364908</v>
+        <v>4293.348169634609</v>
       </c>
       <c r="F7">
-        <v>1.028295099496688E+17</v>
+        <v>6.693625308851159E+16</v>
       </c>
       <c r="G7">
-        <v>1.917317492547938E-10</v>
+        <v>1.248066328382154E-10</v>
       </c>
       <c r="H7">
-        <v>2989.229940397348</v>
+        <v>1945.821310712546</v>
       </c>
       <c r="I7">
-        <v>6.674631014664925E-07</v>
+        <v>3.633029501760787E-07</v>
       </c>
       <c r="J7">
-        <v>9.290794682997591E-07</v>
+        <v>5.057810863613069E-07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1744,22 +1744,22 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>4775.248029066806</v>
+        <v>1733.472532768673</v>
       </c>
       <c r="F8">
-        <v>74449403590120.44</v>
+        <v>27026029939999.53</v>
       </c>
       <c r="G8">
-        <v>1.388153496821746E-10</v>
+        <v>5.039164339443818E-11</v>
       </c>
       <c r="H8">
-        <v>2.164226848550013</v>
+        <v>0.7856404052325444</v>
       </c>
       <c r="I8">
-        <v>4.832487274024249E-07</v>
+        <v>1.466863763014254E-07</v>
       </c>
       <c r="J8">
-        <v>6.726611099926386E-10</v>
+        <v>2.042130258622475E-10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1776,22 +1776,22 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>2666.596786669993</v>
+        <v>1155.506360020987</v>
       </c>
       <c r="F9">
-        <v>41574079330.43204</v>
+        <v>18015139491.08212</v>
       </c>
       <c r="G9">
-        <v>7.751734844970911E-11</v>
+        <v>3.359030116340078E-11</v>
       </c>
       <c r="H9">
-        <v>0.001208548817745118</v>
+        <v>0.0005236959154384336</v>
       </c>
       <c r="I9">
-        <v>2.698560359189338E-07</v>
+        <v>9.77789019096893E-08</v>
       </c>
       <c r="J9">
-        <v>3.75627808965302E-13</v>
+        <v>1.361252893958873E-13</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1808,22 +1808,22 @@
         <v>500</v>
       </c>
       <c r="E10">
-        <v>706.9462053549363</v>
+        <v>576.9657560148886</v>
       </c>
       <c r="F10">
-        <v>11021777.93459228</v>
+        <v>8995293.263463376</v>
       </c>
       <c r="G10">
-        <v>2.055076178357373E-11</v>
+        <v>1.677226034927002E-11</v>
       </c>
       <c r="H10">
-        <v>3.204005213544269E-07</v>
+        <v>2.614910832402144E-07</v>
       </c>
       <c r="I10">
-        <v>7.154201247772859E-08</v>
+        <v>4.882281916787104E-08</v>
       </c>
       <c r="J10">
-        <v>9.958335489686928E-17</v>
+        <v>6.796988162628297E-17</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1840,22 +1840,22 @@
         <v>5000</v>
       </c>
       <c r="E11">
-        <v>577538.6245615153</v>
+        <v>847400.0128715301</v>
       </c>
       <c r="F11">
-        <v>9004224.678412355</v>
+        <v>13211549.46853614</v>
       </c>
       <c r="G11">
-        <v>1.678891350469521E-08</v>
+        <v>2.463372130440494E-08</v>
       </c>
       <c r="H11">
-        <v>2.61750717395708E-07</v>
+        <v>3.840566705969808E-07</v>
       </c>
       <c r="I11">
-        <v>5.844613801131513E-05</v>
+        <v>7.170695515283006E-05</v>
       </c>
       <c r="J11">
-        <v>8.135446994511197E-17</v>
+        <v>9.982859115039448E-17</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1872,22 +1872,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.2877828509624092</v>
+        <v>0.0001209528871358295</v>
       </c>
       <c r="F12">
-        <v>342076082.4922303</v>
+        <v>143771.9087818542</v>
       </c>
       <c r="G12">
-        <v>8.365780551232825E-15</v>
+        <v>3.516072300460161E-18</v>
       </c>
       <c r="H12">
-        <v>9.944072165471812E-06</v>
+        <v>4.179415952960879E-09</v>
       </c>
       <c r="I12">
-        <v>2.912324043679121E-11</v>
+        <v>1.02350284655579E-14</v>
       </c>
       <c r="J12">
-        <v>3.090706792199096E-15</v>
+        <v>1.086363649841128E-18</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1904,22 +1904,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>1.743722070377188E-05</v>
+        <v>8.737942966011733E-06</v>
       </c>
       <c r="F13">
-        <v>7187.361265884444</v>
+        <v>3601.649246994688</v>
       </c>
       <c r="G13">
-        <v>5.068959506910429E-19</v>
+        <v>2.540099699422015E-19</v>
       </c>
       <c r="H13">
-        <v>2.089349205198966E-10</v>
+        <v>1.046991060172875E-10</v>
       </c>
       <c r="I13">
-        <v>1.764623463166941E-15</v>
+        <v>7.394043838500406E-16</v>
       </c>
       <c r="J13">
-        <v>6.493884670513994E-20</v>
+        <v>2.721464056896859E-20</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1936,22 +1936,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>9.312125526200754E-08</v>
+        <v>1.282018347202569E-07</v>
       </c>
       <c r="F14">
-        <v>0.7148021646508474</v>
+        <v>0.9840819769064849</v>
       </c>
       <c r="G14">
-        <v>2.707013234360684E-21</v>
+        <v>3.7267975209377E-21</v>
       </c>
       <c r="H14">
-        <v>2.077913269333859E-14</v>
+        <v>2.860703421239782E-14</v>
       </c>
       <c r="I14">
-        <v>9.423746751072047E-18</v>
+        <v>1.0848434119849E-17</v>
       </c>
       <c r="J14">
-        <v>6.458340756446106E-24</v>
+        <v>7.435881579600559E-24</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1968,22 +1968,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>0.04074192697783104</v>
+        <v>0.05429677399527452</v>
       </c>
       <c r="F15">
-        <v>584.5221578910704</v>
+        <v>778.9927933332922</v>
       </c>
       <c r="G15">
-        <v>1.184358342378809E-15</v>
+        <v>1.578394592885887E-15</v>
       </c>
       <c r="H15">
-        <v>1.699192319450786E-11</v>
+        <v>2.264513934108408E-11</v>
       </c>
       <c r="I15">
-        <v>4.123028635186298E-12</v>
+        <v>4.59459084102323E-12</v>
       </c>
       <c r="J15">
-        <v>5.281242086329837E-21</v>
+        <v>5.886194746496268E-21</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2000,22 +2000,22 @@
         <v>5000</v>
       </c>
       <c r="E16">
-        <v>0.08597416980891615</v>
+        <v>0.1199105594664733</v>
       </c>
       <c r="F16">
-        <v>1.329079416967838</v>
+        <v>1.8537039301246</v>
       </c>
       <c r="G16">
-        <v>2.499249122352214E-15</v>
+        <v>3.48577207751376E-15</v>
       </c>
       <c r="H16">
-        <v>3.863602956301854E-14</v>
+        <v>5.38867421547849E-14</v>
       </c>
       <c r="I16">
-        <v>8.70047124185881E-12</v>
+        <v>1.014682673991973E-11</v>
       </c>
       <c r="J16">
-        <v>1.200842441677522E-23</v>
+        <v>1.400688482414563E-23</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2032,22 +2032,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>2270.523553913851</v>
+        <v>3134.827327286804</v>
       </c>
       <c r="F17">
-        <v>3.539902501341717E+16</v>
+        <v>4.887411574307752E+16</v>
       </c>
       <c r="G17">
-        <v>6.600359168354218E-11</v>
+        <v>9.112870137461638E-11</v>
       </c>
       <c r="H17">
-        <v>1029.041424808639</v>
+        <v>1420.759178577835</v>
       </c>
       <c r="I17">
-        <v>2.297739533710719E-07</v>
+        <v>2.652689628926169E-07</v>
       </c>
       <c r="J17">
-        <v>3.198353016939709E-07</v>
+        <v>3.6930067362442E-07</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2064,22 +2064,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>263.0992562075143</v>
+        <v>352.8822506236281</v>
       </c>
       <c r="F18">
-        <v>4101898496250.801</v>
+        <v>5501677177091.605</v>
       </c>
       <c r="G18">
-        <v>7.648234192078905E-12</v>
+        <v>1.025820495998919E-11</v>
       </c>
       <c r="H18">
-        <v>0.1192412353561279</v>
+        <v>0.1599324760782443</v>
       </c>
       <c r="I18">
-        <v>2.662529359080273E-08</v>
+        <v>2.986088191567501E-08</v>
       </c>
       <c r="J18">
-        <v>3.706124512099312E-11</v>
+        <v>4.157155698211902E-11</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2096,22 +2096,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>30.87070016202115</v>
+        <v>41.71901053277097</v>
       </c>
       <c r="F19">
-        <v>481295463.9177247</v>
+        <v>650428089.5209808</v>
       </c>
       <c r="G19">
-        <v>8.974040744773591E-13</v>
+        <v>1.21276193409218E-12</v>
       </c>
       <c r="H19">
-        <v>1.39911472069106E-05</v>
+        <v>1.890779330002851E-05</v>
       </c>
       <c r="I19">
-        <v>3.124073655758132E-09</v>
+        <v>3.530261000535748E-09</v>
       </c>
       <c r="J19">
-        <v>4.348574003033124E-15</v>
+        <v>4.914739181513785E-15</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2128,22 +2128,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>40741928.55991011</v>
+        <v>54296776.10173924</v>
       </c>
       <c r="F20">
-        <v>635194709035.7445</v>
+        <v>846524112053.4554</v>
       </c>
       <c r="G20">
-        <v>1.18435838836948E-06</v>
+        <v>1.578394654120327E-06</v>
       </c>
       <c r="H20">
-        <v>0.01846496247196932</v>
+        <v>0.02460825907132138</v>
       </c>
       <c r="I20">
-        <v>0.004123028795290589</v>
+        <v>0.004594591019272191</v>
       </c>
       <c r="J20">
-        <v>5.739075901719306E-12</v>
+        <v>6.396472244409548E-12</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2160,22 +2160,22 @@
         <v>5000</v>
       </c>
       <c r="E21">
-        <v>85974169.81082237</v>
+        <v>119910559.469132</v>
       </c>
       <c r="F21">
-        <v>1340396483.619368</v>
+        <v>1869488156.907138</v>
       </c>
       <c r="G21">
-        <v>2.499249122407627E-06</v>
+        <v>3.485772077591047E-06</v>
       </c>
       <c r="H21">
-        <v>3.896501405870256E-05</v>
+        <v>5.434558595660285E-05</v>
       </c>
       <c r="I21">
-        <v>0.008700471242051717</v>
+        <v>0.01014682674014471</v>
       </c>
       <c r="J21">
-        <v>1.211067574786162E-14</v>
+        <v>1.412615297856247E-14</v>
       </c>
     </row>
   </sheetData>
@@ -2397,22 +2397,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>250128.9348656699</v>
+        <v>847.4995136565549</v>
       </c>
       <c r="F7">
-        <v>3.89968225902192E+18</v>
+        <v>1.321310075426135E+16</v>
       </c>
       <c r="G7">
-        <v>9.438827730779996E-07</v>
+        <v>3.198111372288886E-09</v>
       </c>
       <c r="H7">
-        <v>14715782.10951668</v>
+        <v>49860.75756325039</v>
       </c>
       <c r="I7">
-        <v>2.531271438145186E-05</v>
+        <v>7.171537490527408E-08</v>
       </c>
       <c r="J7">
-        <v>3.523419222286938E-05</v>
+        <v>9.984031291465754E-08</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2557,22 +2557,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>17.95388737645824</v>
+        <v>0.05668165732666766</v>
       </c>
       <c r="F12">
-        <v>21341075184.66335</v>
+        <v>67375242.20998904</v>
       </c>
       <c r="G12">
-        <v>6.775051840172922E-11</v>
+        <v>2.13893046515727E-13</v>
       </c>
       <c r="H12">
-        <v>0.08053235918740888</v>
+        <v>0.0002542461970188266</v>
       </c>
       <c r="I12">
-        <v>1.816909440889385E-09</v>
+        <v>4.796399573016802E-12</v>
       </c>
       <c r="J12">
-        <v>1.928196953891647E-13</v>
+        <v>5.090981587177182E-16</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2589,22 +2589,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0.04983422562682514</v>
+        <v>0.01353824524739553</v>
       </c>
       <c r="F13">
-        <v>20540921.57634451</v>
+        <v>5580261.966755214</v>
       </c>
       <c r="G13">
-        <v>1.880536816106609E-13</v>
+        <v>5.108771791470011E-14</v>
       </c>
       <c r="H13">
-        <v>7.751291160884722E-05</v>
+        <v>2.105759232737817E-05</v>
       </c>
       <c r="I13">
-        <v>5.043157123705426E-12</v>
+        <v>1.145605770660027E-12</v>
       </c>
       <c r="J13">
-        <v>1.855901920166516E-16</v>
+        <v>4.216535628299977E-17</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2621,22 +2621,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>0.03066843702224718</v>
+        <v>0.00886260907749211</v>
       </c>
       <c r="F14">
-        <v>235412.0453840613</v>
+        <v>68029.71174756304</v>
       </c>
       <c r="G14">
-        <v>1.157299510273478E-13</v>
+        <v>3.344380783959287E-14</v>
       </c>
       <c r="H14">
-        <v>8.883473410719294E-07</v>
+        <v>2.567158933870303E-07</v>
       </c>
       <c r="I14">
-        <v>3.103604895957337E-12</v>
+        <v>7.499536252109284E-13</v>
       </c>
       <c r="J14">
-        <v>2.126981817416382E-18</v>
+        <v>5.140434357302639E-19</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2717,22 +2717,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>260364900.9485581</v>
+        <v>118944932.5650512</v>
       </c>
       <c r="F17">
-        <v>4.059268015699076E+21</v>
+        <v>1.85443336882874E+21</v>
       </c>
       <c r="G17">
-        <v>0.0009825090601832381</v>
+        <v>0.0004488488021322687</v>
       </c>
       <c r="H17">
-        <v>15317992512.07198</v>
+        <v>6997861769.165057</v>
       </c>
       <c r="I17">
-        <v>0.02634858048792021</v>
+        <v>0.01006511543019245</v>
       </c>
       <c r="J17">
-        <v>0.0366760725744766</v>
+        <v>0.01401239658022983</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2749,22 +2749,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>101276555.2810641</v>
+        <v>28796942.87043307</v>
       </c>
       <c r="F18">
-        <v>1.57897120577642E+18</v>
+        <v>4.489641603687513E+17</v>
       </c>
       <c r="G18">
-        <v>0.0003821756803059024</v>
+        <v>0.0001086677089450305</v>
       </c>
       <c r="H18">
-        <v>5958381.908590265</v>
+        <v>1694204.378750005</v>
       </c>
       <c r="I18">
-        <v>0.01024905222877814</v>
+        <v>0.002436796152446847</v>
       </c>
       <c r="J18">
-        <v>1.426623280653018E-05</v>
+        <v>3.392445353466802E-06</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2781,22 +2781,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>79999035.88552921</v>
+        <v>23118223.53151412</v>
       </c>
       <c r="F19">
-        <v>1247240033022161</v>
+        <v>360429017196131.7</v>
       </c>
       <c r="G19">
-        <v>0.0003018831542850159</v>
+        <v>8.723857936420422E-05</v>
       </c>
       <c r="H19">
-        <v>4706.566162347777</v>
+        <v>1360.109498853327</v>
       </c>
       <c r="I19">
-        <v>0.008095795663342299</v>
+        <v>0.001956263149406754</v>
       </c>
       <c r="J19">
-        <v>1.126899376734933E-08</v>
+        <v>2.723459582246707E-09</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2922,22 +2922,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>12400716.61856442</v>
+        <v>4.471024389160158E-21</v>
       </c>
       <c r="F2">
-        <v>1.933357075323763E+20</v>
+        <v>6.970634764596844E-08</v>
       </c>
       <c r="G2">
-        <v>4.413066412300505E-06</v>
+        <v>1.591111882263401E-33</v>
       </c>
       <c r="H2">
-        <v>68802742.8940841</v>
+        <v>2.480652941137667E-20</v>
       </c>
       <c r="I2">
-        <v>0.001254935971560509</v>
+        <v>3.783379047568198E-31</v>
       </c>
       <c r="J2">
-        <v>0.001746816030198503</v>
+        <v>5.267123660482862E-31</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2954,22 +2954,22 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>2758612.977011031</v>
+        <v>6.764106744111251E-22</v>
       </c>
       <c r="F3">
-        <v>4.300867507285759E+16</v>
+        <v>1.054570798948439E-11</v>
       </c>
       <c r="G3">
-        <v>9.817128032067728E-07</v>
+        <v>2.407155424950623E-34</v>
       </c>
       <c r="H3">
-        <v>15305.57831774291</v>
+        <v>3.752920992699071E-24</v>
       </c>
       <c r="I3">
-        <v>0.0002791679515748449</v>
+        <v>5.723784418002767E-32</v>
       </c>
       <c r="J3">
-        <v>3.885895886163984E-07</v>
+        <v>7.968506447944548E-35</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2986,22 +2986,22 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>1441468.474629231</v>
+        <v>2.944268619161538E-22</v>
       </c>
       <c r="F4">
-        <v>22473485686371.57</v>
+        <v>4.590317432129709E-15</v>
       </c>
       <c r="G4">
-        <v>5.129781048502603E-07</v>
+        <v>1.047782426747878E-34</v>
       </c>
       <c r="H4">
-        <v>7.997681738922268</v>
+        <v>1.633564922466088E-27</v>
       </c>
       <c r="I4">
-        <v>0.0001458746858205437</v>
+        <v>2.491438926424807E-32</v>
       </c>
       <c r="J4">
-        <v>2.030511877626973E-10</v>
+        <v>3.468517627504139E-38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3018,22 +3018,22 @@
         <v>500</v>
       </c>
       <c r="E5">
-        <v>239284.1463953115</v>
+        <v>4.886775245892418E-23</v>
       </c>
       <c r="F5">
-        <v>3730604542.2699</v>
+        <v>7.618818966493622E-19</v>
       </c>
       <c r="G5">
-        <v>8.515450049655215E-08</v>
+        <v>1.739065923805131E-35</v>
       </c>
       <c r="H5">
-        <v>0.001327617274829146</v>
+        <v>2.711323475620506E-31</v>
       </c>
       <c r="I5">
-        <v>2.421523626191776E-05</v>
+        <v>4.135187256036689E-33</v>
       </c>
       <c r="J5">
-        <v>3.370655064159381E-14</v>
+        <v>5.75690206108153E-42</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3050,22 +3050,22 @@
         <v>5000</v>
       </c>
       <c r="E6">
-        <v>668563.3355791464</v>
+        <v>1.346250092377216E-22</v>
       </c>
       <c r="F6">
-        <v>10423362.57574793</v>
+        <v>2.098896556797597E-21</v>
       </c>
       <c r="G6">
-        <v>2.379228952238955E-07</v>
+        <v>4.790925595648457E-35</v>
       </c>
       <c r="H6">
-        <v>3.709381699554422E-06</v>
+        <v>7.46938276440426E-34</v>
       </c>
       <c r="I6">
-        <v>6.765771728294511E-05</v>
+        <v>1.139196289028398E-32</v>
       </c>
       <c r="J6">
-        <v>9.417658573410992E-17</v>
+        <v>1.585959971875534E-44</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3082,22 +3082,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>7.209304924405029E-13</v>
+        <v>8.127664582342177E-13</v>
       </c>
       <c r="F7">
-        <v>11.23980259568134</v>
+        <v>12.67158851336506</v>
       </c>
       <c r="G7">
-        <v>2.565588941069405E-25</v>
+        <v>2.892407324676932E-25</v>
       </c>
       <c r="H7">
-        <v>3.99992974935279E-12</v>
+        <v>4.509462104400375E-12</v>
       </c>
       <c r="I7">
-        <v>7.29572036670857E-23</v>
+        <v>6.877626514641233E-23</v>
       </c>
       <c r="J7">
-        <v>1.015532391868946E-22</v>
+        <v>9.574855939035573E-23</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3114,22 +3114,22 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>2.128780715475255E-13</v>
+        <v>1.787963602550877E-13</v>
       </c>
       <c r="F8">
-        <v>0.00331891566001556</v>
+        <v>0.002787558322426432</v>
       </c>
       <c r="G8">
-        <v>7.575732083541833E-26</v>
+        <v>6.362859795554722E-26</v>
       </c>
       <c r="H8">
-        <v>1.181108775806249E-15</v>
+        <v>9.920136378741749E-16</v>
       </c>
       <c r="I8">
-        <v>2.154297672938422E-23</v>
+        <v>1.512974084441575E-23</v>
       </c>
       <c r="J8">
-        <v>2.998688215326785E-26</v>
+        <v>2.106323870187358E-26</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3146,22 +3146,22 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>1.290337867338874E-13</v>
+        <v>1.18843213868351E-13</v>
       </c>
       <c r="F9">
-        <v>2.011725549508272E-06</v>
+        <v>1.852847504333911E-06</v>
       </c>
       <c r="G9">
-        <v>4.591949705832293E-26</v>
+        <v>4.229295867201102E-26</v>
       </c>
       <c r="H9">
-        <v>7.159165656613068E-19</v>
+        <v>6.593763360618901E-19</v>
       </c>
       <c r="I9">
-        <v>1.30580470064615E-23</v>
+        <v>1.005650799815127E-23</v>
       </c>
       <c r="J9">
-        <v>1.817623078060975E-29</v>
+        <v>1.400041353322605E-29</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3178,22 +3178,22 @@
         <v>500</v>
       </c>
       <c r="E10">
-        <v>4.789764436204562E-14</v>
+        <v>5.754254814364688E-14</v>
       </c>
       <c r="F10">
-        <v>7.467572436908289E-10</v>
+        <v>8.971279322610385E-10</v>
       </c>
       <c r="G10">
-        <v>1.704542503987388E-26</v>
+        <v>2.047777514008786E-26</v>
       </c>
       <c r="H10">
-        <v>2.657499087867719E-22</v>
+        <v>3.192626093455653E-22</v>
       </c>
       <c r="I10">
-        <v>4.847177684308857E-24</v>
+        <v>4.86924811947295E-24</v>
       </c>
       <c r="J10">
-        <v>6.747059509053935E-33</v>
+        <v>6.778842842966647E-33</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3210,22 +3210,22 @@
         <v>5000</v>
       </c>
       <c r="E11">
-        <v>2.432100282996109E-12</v>
+        <v>3.444602283294721E-12</v>
       </c>
       <c r="F11">
-        <v>3.791811743353746E-11</v>
+        <v>5.370372052623516E-11</v>
       </c>
       <c r="G11">
-        <v>8.655161149452347E-25</v>
+        <v>1.225837111492783E-24</v>
       </c>
       <c r="H11">
-        <v>1.349399196923041E-23</v>
+        <v>1.911164431538618E-23</v>
       </c>
       <c r="I11">
-        <v>2.461253027107431E-22</v>
+        <v>2.914821072642552E-22</v>
       </c>
       <c r="J11">
-        <v>3.425956654011292E-34</v>
+        <v>4.057939435821985E-34</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3242,22 +3242,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>2.961326456200814E-18</v>
+        <v>5.53227412190612E-19</v>
       </c>
       <c r="F12">
-        <v>3.520011528588595E-09</v>
+        <v>6.575995242822812E-10</v>
       </c>
       <c r="G12">
-        <v>1.05385283138819E-30</v>
+        <v>1.96878082630111E-31</v>
       </c>
       <c r="H12">
-        <v>1.252673141846475E-21</v>
+        <v>2.340211830186054E-22</v>
       </c>
       <c r="I12">
-        <v>2.996822851234887E-28</v>
+        <v>4.681408146412507E-29</v>
       </c>
       <c r="J12">
-        <v>3.180381235883395E-32</v>
+        <v>4.96892769516637E-33</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3274,22 +3274,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>9.557120979147984E-20</v>
+        <v>1.312040469490945E-19</v>
       </c>
       <c r="F13">
-        <v>3.939302157484379E-11</v>
+        <v>5.408034347843183E-11</v>
       </c>
       <c r="G13">
-        <v>3.401110668735938E-32</v>
+        <v>4.669183165448202E-32</v>
       </c>
       <c r="H13">
-        <v>1.401886888784477E-23</v>
+        <v>1.924567383574086E-23</v>
       </c>
       <c r="I13">
-        <v>9.671678879697555E-30</v>
+        <v>1.110248119842177E-29</v>
       </c>
       <c r="J13">
-        <v>3.559216372555969E-34</v>
+        <v>4.086397671400057E-34</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3306,22 +3306,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>6.096868504884402E-20</v>
+        <v>8.357193844516666E-20</v>
       </c>
       <c r="F14">
-        <v>4.679978585577535E-13</v>
+        <v>6.415012591550054E-13</v>
       </c>
       <c r="G14">
-        <v>2.169704094264912E-32</v>
+        <v>2.974090336126927E-32</v>
       </c>
       <c r="H14">
-        <v>1.665472806255351E-25</v>
+        <v>2.282922630444859E-25</v>
       </c>
       <c r="I14">
-        <v>6.169949556947072E-30</v>
+        <v>7.071854084372265E-30</v>
       </c>
       <c r="J14">
-        <v>4.228428218777717E-36</v>
+        <v>4.847286616544308E-36</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3338,22 +3338,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>9.125092702541651E-20</v>
+        <v>1.220977476852102E-19</v>
       </c>
       <c r="F15">
-        <v>1.309171969295415E-15</v>
+        <v>1.751729587788829E-15</v>
       </c>
       <c r="G15">
-        <v>3.247363951082438E-32</v>
+        <v>4.34511557598613E-32</v>
       </c>
       <c r="H15">
-        <v>4.658974979698986E-28</v>
+        <v>6.233913123803661E-28</v>
       </c>
       <c r="I15">
-        <v>9.234472029705569E-30</v>
+        <v>1.033190651939755E-29</v>
       </c>
       <c r="J15">
-        <v>1.182855775293764E-38</v>
+        <v>1.323635030409467E-38</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3370,22 +3370,22 @@
         <v>5000</v>
       </c>
       <c r="E16">
-        <v>2.718437619222281E-20</v>
+        <v>3.786994476859224E-20</v>
       </c>
       <c r="F16">
-        <v>4.202447658464845E-19</v>
+        <v>5.854335578408223E-19</v>
       </c>
       <c r="G16">
-        <v>9.674155228549043E-33</v>
+        <v>1.347684867209688E-32</v>
       </c>
       <c r="H16">
-        <v>1.495532974542649E-31</v>
+        <v>2.083393444273389E-31</v>
       </c>
       <c r="I16">
-        <v>2.751022589854393E-30</v>
+        <v>3.204553209716889E-30</v>
       </c>
       <c r="J16">
-        <v>3.796972131827866E-42</v>
+        <v>4.423630054188326E-42</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3402,22 +3402,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>5.042755053995815E-11</v>
+        <v>7.011036847848952E-11</v>
       </c>
       <c r="F17">
-        <v>786.2002223461925</v>
+        <v>1093.068901748162</v>
       </c>
       <c r="G17">
-        <v>1.794574752311678E-23</v>
+        <v>2.495030906707812E-23</v>
       </c>
       <c r="H17">
-        <v>2.797865559950863E-10</v>
+        <v>3.889924917253244E-10</v>
       </c>
       <c r="I17">
-        <v>5.103200813051488E-21</v>
+        <v>5.932736572895966E-21</v>
       </c>
       <c r="J17">
-        <v>7.103432515744531E-21</v>
+        <v>8.259404300131539E-21</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3434,22 +3434,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>1.107938780885347E-11</v>
+        <v>1.538812700703534E-11</v>
       </c>
       <c r="F18">
-        <v>0.172735281914558</v>
+        <v>0.2399114917318107</v>
       </c>
       <c r="G18">
-        <v>3.94284263660266E-24</v>
+        <v>5.476201781863111E-24</v>
       </c>
       <c r="H18">
-        <v>6.147163057457581E-14</v>
+        <v>8.537775506470132E-14</v>
       </c>
       <c r="I18">
-        <v>1.121219259488956E-21</v>
+        <v>1.302142691077375E-21</v>
       </c>
       <c r="J18">
-        <v>1.560688210576302E-24</v>
+        <v>1.81280979020774E-24</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3466,22 +3466,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>7.625824928582288E-12</v>
+        <v>1.057746139590461E-11</v>
       </c>
       <c r="F19">
-        <v>0.0001188918595138551</v>
+        <v>0.0001649099036592898</v>
       </c>
       <c r="G19">
-        <v>2.713816700563092E-24</v>
+        <v>3.7642211373326E-24</v>
       </c>
       <c r="H19">
-        <v>4.231027028962815E-17</v>
+        <v>5.868679845526329E-17</v>
       </c>
       <c r="I19">
-        <v>7.717233051978759E-22</v>
+        <v>8.950643597192294E-22</v>
       </c>
       <c r="J19">
-        <v>1.074205115597344E-27</v>
+        <v>1.246085736443016E-27</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3498,22 +3498,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>2.274862486870646E-10</v>
+        <v>3.033475912428511E-10</v>
       </c>
       <c r="F20">
-        <v>3.546667196471364E-06</v>
+        <v>4.729397742496605E-06</v>
       </c>
       <c r="G20">
-        <v>8.095596038685573E-23</v>
+        <v>1.079528794458545E-22</v>
       </c>
       <c r="H20">
-        <v>1.262159144651731E-18</v>
+        <v>1.683059694838649E-18</v>
       </c>
       <c r="I20">
-        <v>2.30213047595475E-20</v>
+        <v>2.566926102261917E-20</v>
       </c>
       <c r="J20">
-        <v>3.204465016653934E-29</v>
+        <v>3.57360894532233E-29</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3530,22 +3530,22 @@
         <v>5000</v>
       </c>
       <c r="E21">
-        <v>4.125442497118499E-10</v>
+        <v>5.747061415246925E-10</v>
       </c>
       <c r="F21">
-        <v>6.431848808402755E-09</v>
+        <v>8.960064318262058E-09</v>
       </c>
       <c r="G21">
-        <v>1.468129002533274E-22</v>
+        <v>2.045217585497127E-22</v>
       </c>
       <c r="H21">
-        <v>2.288914166691372E-21</v>
+        <v>3.188634988705359E-21</v>
       </c>
       <c r="I21">
-        <v>4.174892748123902E-20</v>
+        <v>4.863161068020285E-20</v>
       </c>
       <c r="J21">
-        <v>5.811268257546061E-32</v>
+        <v>6.770368605433E-32</v>
       </c>
     </row>
   </sheetData>
@@ -4292,22 +4292,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>19594014.87061423</v>
+        <v>7.0645367572495E-21</v>
       </c>
       <c r="F2">
-        <v>3.054841784497333E+20</v>
+        <v>1.101409905865124E-07</v>
       </c>
       <c r="G2">
-        <v>4.413066412300503E-06</v>
+        <v>1.591111882263401E-33</v>
       </c>
       <c r="H2">
-        <v>68802742.89408407</v>
+        <v>2.480652941137666E-20</v>
       </c>
       <c r="I2">
-        <v>0.001982888154351835</v>
+        <v>5.978008174805265E-31</v>
       </c>
       <c r="J2">
-        <v>0.002760093656256709</v>
+        <v>8.322430267809216E-31</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4324,22 +4324,22 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>4358804.84623807</v>
+        <v>1.068777008678076E-21</v>
       </c>
       <c r="F3">
-        <v>6.795676773077854E+16</v>
+        <v>1.666296920758387E-11</v>
       </c>
       <c r="G3">
-        <v>9.817128032067726E-07</v>
+        <v>2.407155424950623E-34</v>
       </c>
       <c r="H3">
-        <v>15305.57831774291</v>
+        <v>3.752920992699071E-24</v>
       </c>
       <c r="I3">
-        <v>0.0004411052330933492</v>
+        <v>9.043986767235688E-32</v>
       </c>
       <c r="J3">
-        <v>6.13999207635875E-07</v>
+        <v>1.259080734123622E-34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4356,22 +4356,22 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>2277622.785535156</v>
+        <v>4.652153974760578E-22</v>
       </c>
       <c r="F4">
-        <v>35509706920814.88</v>
+        <v>7.253028255749433E-15</v>
       </c>
       <c r="G4">
-        <v>5.129781048502604E-07</v>
+        <v>1.047782426747878E-34</v>
       </c>
       <c r="H4">
-        <v>7.997681738922271</v>
+        <v>1.633564922466088E-27</v>
       </c>
       <c r="I4">
-        <v>0.0002304923861363751</v>
+        <v>3.936650830365175E-32</v>
       </c>
       <c r="J4">
-        <v>3.208353287068955E-10</v>
+        <v>5.480504721038568E-38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4388,22 +4388,22 @@
         <v>500</v>
       </c>
       <c r="E5">
-        <v>378085.9822046916</v>
+        <v>7.72145270169478E-23</v>
       </c>
       <c r="F5">
-        <v>5894620700.241407</v>
+        <v>1.203827623175504E-18</v>
       </c>
       <c r="G5">
-        <v>8.515450049655215E-08</v>
+        <v>1.739065923805131E-35</v>
       </c>
       <c r="H5">
-        <v>0.001327617274829146</v>
+        <v>2.711323475620506E-31</v>
       </c>
       <c r="I5">
-        <v>3.826179679819034E-05</v>
+        <v>6.533890183915621E-33</v>
       </c>
       <c r="J5">
-        <v>5.32587490564685E-14</v>
+        <v>9.096315000427753E-42</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4420,22 +4420,22 @@
         <v>5000</v>
       </c>
       <c r="E6">
-        <v>1056377.654794096</v>
+        <v>2.127170964467915E-22</v>
       </c>
       <c r="F6">
-        <v>16469654.74602163</v>
+        <v>3.316405947395491E-21</v>
       </c>
       <c r="G6">
-        <v>2.379228952238955E-07</v>
+        <v>4.790925595648456E-35</v>
       </c>
       <c r="H6">
-        <v>3.709381699554422E-06</v>
+        <v>7.46938276440426E-34</v>
       </c>
       <c r="I6">
-        <v>0.0001069040088029453</v>
+        <v>1.800011218251276E-32</v>
       </c>
       <c r="J6">
-        <v>1.488057084197324E-16</v>
+        <v>2.505929635276645E-44</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4452,22 +4452,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>1.139121489834816E-12</v>
+        <v>1.284228852156557E-12</v>
       </c>
       <c r="F7">
-        <v>17.75968808712639</v>
+        <v>20.02201174353766</v>
       </c>
       <c r="G7">
-        <v>2.565588941069405E-25</v>
+        <v>2.89240732467693E-25</v>
       </c>
       <c r="H7">
-        <v>3.99992974935279E-12</v>
+        <v>4.509462104400374E-12</v>
       </c>
       <c r="I7">
-        <v>1.152775744775304E-22</v>
+        <v>1.08671394039171E-22</v>
       </c>
       <c r="J7">
-        <v>1.604613459038477E-22</v>
+        <v>1.512895386808467E-22</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4484,22 +4484,22 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>3.363625045092573E-13</v>
+        <v>2.825109749226296E-13</v>
       </c>
       <c r="F8">
-        <v>0.005244122964579745</v>
+        <v>0.004404540552161338</v>
       </c>
       <c r="G8">
-        <v>7.575732083541832E-26</v>
+        <v>6.362859795554721E-26</v>
       </c>
       <c r="H8">
-        <v>1.181108775806249E-15</v>
+        <v>9.920136378741751E-16</v>
       </c>
       <c r="I8">
-        <v>3.403943654037933E-23</v>
+        <v>2.390606738405904E-23</v>
       </c>
       <c r="J8">
-        <v>4.738140809982534E-26</v>
+        <v>3.32814163118572E-26</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4516,22 +4516,22 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>2.038825669389538E-13</v>
+        <v>1.877807365037289E-13</v>
       </c>
       <c r="F9">
-        <v>3.178669551536203E-06</v>
+        <v>2.927630932114791E-06</v>
       </c>
       <c r="G9">
-        <v>4.591949705832293E-26</v>
+        <v>4.229295867201101E-26</v>
       </c>
       <c r="H9">
-        <v>7.15916565661307E-19</v>
+        <v>6.593763360618899E-19</v>
       </c>
       <c r="I9">
-        <v>2.063264366857263E-23</v>
+        <v>1.588999840277282E-23</v>
       </c>
       <c r="J9">
-        <v>2.87197383152695E-29</v>
+        <v>2.212164985321126E-29</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4548,22 +4548,22 @@
         <v>500</v>
       </c>
       <c r="E10">
-        <v>7.568168717704006E-14</v>
+        <v>9.092132162199008E-14</v>
       </c>
       <c r="F10">
-        <v>1.179929595013267E-09</v>
+        <v>1.41752598549431E-09</v>
       </c>
       <c r="G10">
-        <v>1.704542503987389E-26</v>
+        <v>2.047777514008786E-26</v>
       </c>
       <c r="H10">
-        <v>2.657499087867719E-22</v>
+        <v>3.192626093455653E-22</v>
       </c>
       <c r="I10">
-        <v>7.65888573606097E-24</v>
+        <v>7.693758594469714E-24</v>
       </c>
       <c r="J10">
-        <v>1.066083424206387E-32</v>
+        <v>1.071105417180495E-32</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4580,22 +4580,22 @@
         <v>5000</v>
       </c>
       <c r="E11">
-        <v>3.842891550356841E-12</v>
+        <v>5.442716775027957E-12</v>
       </c>
       <c r="F11">
-        <v>5.991332434338304E-11</v>
+        <v>8.485570076031462E-11</v>
       </c>
       <c r="G11">
-        <v>8.655161149452345E-25</v>
+        <v>1.225837111492783E-24</v>
       </c>
       <c r="H11">
-        <v>1.349399196923041E-23</v>
+        <v>1.911164431538617E-23</v>
       </c>
       <c r="I11">
-        <v>3.888954960981137E-22</v>
+        <v>4.605624755349797E-22</v>
       </c>
       <c r="J11">
-        <v>5.413255353669088E-34</v>
+        <v>6.411833129910893E-34</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4612,22 +4612,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>4.679106571363565E-18</v>
+        <v>8.741386868776929E-19</v>
       </c>
       <c r="F12">
-        <v>5.56186874979835E-09</v>
+        <v>1.039054052602608E-09</v>
       </c>
       <c r="G12">
-        <v>1.05385283138819E-30</v>
+        <v>1.96878082630111E-31</v>
       </c>
       <c r="H12">
-        <v>1.252673141846475E-21</v>
+        <v>2.340211830186053E-22</v>
       </c>
       <c r="I12">
-        <v>4.735193401951211E-28</v>
+        <v>7.396958067641114E-29</v>
       </c>
       <c r="J12">
-        <v>5.025228714349563E-32</v>
+        <v>7.851259418697038E-33</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4644,22 +4644,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>1.510093136918756E-19</v>
+        <v>2.073117325459002E-19</v>
       </c>
       <c r="F13">
-        <v>6.224377786203076E-11</v>
+        <v>8.545079183068945E-11</v>
       </c>
       <c r="G13">
-        <v>3.401110668735937E-32</v>
+        <v>4.669183165448203E-32</v>
       </c>
       <c r="H13">
-        <v>1.401886888784477E-23</v>
+        <v>1.924567383574087E-23</v>
       </c>
       <c r="I13">
-        <v>1.528194100564311E-29</v>
+        <v>1.754271050569134E-29</v>
       </c>
       <c r="J13">
-        <v>5.623815193647155E-34</v>
+        <v>6.456799167621443E-34</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4676,22 +4676,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>9.633486178536206E-20</v>
+        <v>1.320496109240355E-19</v>
       </c>
       <c r="F14">
-        <v>7.394699259773756E-13</v>
+        <v>1.013617647917517E-12</v>
       </c>
       <c r="G14">
-        <v>2.169704094264911E-32</v>
+        <v>2.974090336126926E-32</v>
       </c>
       <c r="H14">
-        <v>1.66547280625535E-25</v>
+        <v>2.282922630444859E-25</v>
       </c>
       <c r="I14">
-        <v>9.748959442293593E-30</v>
+        <v>1.117403278811845E-29</v>
       </c>
       <c r="J14">
-        <v>6.681217541413902E-36</v>
+        <v>7.659057856746165E-36</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4708,22 +4708,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>1.441829594280602E-19</v>
+        <v>1.929231315737841E-19</v>
       </c>
       <c r="F15">
-        <v>2.068584890986349E-15</v>
+        <v>2.767857426968826E-15</v>
       </c>
       <c r="G15">
-        <v>3.247363951082438E-32</v>
+        <v>4.34511557598613E-32</v>
       </c>
       <c r="H15">
-        <v>4.658974979698985E-28</v>
+        <v>6.233913123803661E-28</v>
       </c>
       <c r="I15">
-        <v>1.459112306473051E-29</v>
+        <v>1.632514766766019E-29</v>
       </c>
       <c r="J15">
-        <v>1.868996313987299E-38</v>
+        <v>2.091437556945919E-38</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4740,22 +4740,22 @@
         <v>5000</v>
       </c>
       <c r="E16">
-        <v>4.295324921475775E-20</v>
+        <v>5.983720810411014E-20</v>
       </c>
       <c r="F16">
-        <v>6.640166406969363E-19</v>
+        <v>9.250266892573846E-19</v>
       </c>
       <c r="G16">
-        <v>9.674155228549043E-33</v>
+        <v>1.347684867209688E-32</v>
       </c>
       <c r="H16">
-        <v>1.495532974542649E-31</v>
+        <v>2.083393444273389E-31</v>
       </c>
       <c r="I16">
-        <v>4.346811494289503E-30</v>
+        <v>5.063422153431667E-30</v>
       </c>
       <c r="J16">
-        <v>5.999486215414847E-42</v>
+        <v>6.989650334731732E-42</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4772,22 +4772,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>7.967911900263849E-11</v>
+        <v>1.107793722578268E-10</v>
       </c>
       <c r="F17">
-        <v>1242.252308618183</v>
+        <v>1727.12666326044</v>
       </c>
       <c r="G17">
-        <v>1.794574752311678E-23</v>
+        <v>2.495030906707812E-23</v>
       </c>
       <c r="H17">
-        <v>2.797865559950863E-10</v>
+        <v>3.889924917253243E-10</v>
       </c>
       <c r="I17">
-        <v>8.063420501761069E-21</v>
+        <v>9.374146044006435E-21</v>
       </c>
       <c r="J17">
-        <v>1.122392895726182E-20</v>
+        <v>1.305044665216514E-20</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4804,22 +4804,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>1.750622130651581E-11</v>
+        <v>2.431433591147222E-11</v>
       </c>
       <c r="F18">
-        <v>0.2729340397511167</v>
+        <v>0.3790772324872739</v>
       </c>
       <c r="G18">
-        <v>3.942842636602661E-24</v>
+        <v>5.476201781863112E-24</v>
       </c>
       <c r="H18">
-        <v>6.147163057457583E-14</v>
+        <v>8.537775506470133E-14</v>
       </c>
       <c r="I18">
-        <v>1.771606232075077E-21</v>
+        <v>2.057478131097347E-21</v>
       </c>
       <c r="J18">
-        <v>2.465998453721986E-24</v>
+        <v>2.864368494136074E-24</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4836,22 +4836,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>1.204934615050013E-11</v>
+        <v>1.671314184975674E-11</v>
       </c>
       <c r="F19">
-        <v>0.000187857600085949</v>
+        <v>0.000260569385141369</v>
       </c>
       <c r="G19">
-        <v>2.713816700563092E-24</v>
+        <v>3.764221137332599E-24</v>
       </c>
       <c r="H19">
-        <v>4.231027028962815E-17</v>
+        <v>5.868679845526328E-17</v>
       </c>
       <c r="I19">
-        <v>1.219377749138281E-21</v>
+        <v>1.414265394004761E-21</v>
       </c>
       <c r="J19">
-        <v>1.697320538523917E-27</v>
+        <v>1.968904152956224E-27</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4868,22 +4868,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>3.594444641176394E-10</v>
+        <v>4.79310784739594E-10</v>
       </c>
       <c r="F20">
-        <v>5.603986602253687E-06</v>
+        <v>7.472785045083602E-06</v>
       </c>
       <c r="G20">
-        <v>8.095596038685572E-23</v>
+        <v>1.079528794458545E-22</v>
       </c>
       <c r="H20">
-        <v>1.262159144651731E-18</v>
+        <v>1.683059694838649E-18</v>
       </c>
       <c r="I20">
-        <v>3.63753000471142E-20</v>
+        <v>4.055925940940538E-20</v>
       </c>
       <c r="J20">
-        <v>5.063282802115114E-29</v>
+        <v>5.646556483000406E-29</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4900,22 +4900,22 @@
         <v>5000</v>
       </c>
       <c r="E21">
-        <v>6.518492771247734E-10</v>
+        <v>9.080766079607242E-10</v>
       </c>
       <c r="F21">
-        <v>1.016277890010969E-08</v>
+        <v>1.415753934985179E-08</v>
       </c>
       <c r="G21">
-        <v>1.468129002533273E-22</v>
+        <v>2.045217585497127E-22</v>
       </c>
       <c r="H21">
-        <v>2.288914166691371E-21</v>
+        <v>3.188634988705359E-21</v>
       </c>
       <c r="I21">
-        <v>6.59662768742709E-20</v>
+        <v>7.684140619932407E-20</v>
       </c>
       <c r="J21">
-        <v>9.182217460321889E-32</v>
+        <v>1.069766427335321E-31</v>
       </c>
     </row>
   </sheetData>
@@ -5662,22 +5662,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>653133.8290204748</v>
+        <v>2.354845585749834E-22</v>
       </c>
       <c r="F2">
-        <v>1.018280594832444E+19</v>
+        <v>3.671366352883747E-09</v>
       </c>
       <c r="G2">
-        <v>1.103266603075126E-06</v>
+        <v>3.977779705658504E-34</v>
       </c>
       <c r="H2">
-        <v>17200685.72352102</v>
+        <v>6.201632352844167E-21</v>
       </c>
       <c r="I2">
-        <v>6.609627181172787E-05</v>
+        <v>1.992669391601756E-32</v>
       </c>
       <c r="J2">
-        <v>9.200312187522364E-05</v>
+        <v>2.774143422603073E-32</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5694,22 +5694,22 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>145293.4948746024</v>
+        <v>3.562590028926922E-23</v>
       </c>
       <c r="F3">
-        <v>2265225591025952</v>
+        <v>5.554323069194627E-13</v>
       </c>
       <c r="G3">
-        <v>2.454282008016932E-07</v>
+        <v>6.017888562376558E-35</v>
       </c>
       <c r="H3">
-        <v>3826.39457943573</v>
+        <v>9.38230248174768E-25</v>
       </c>
       <c r="I3">
-        <v>1.470350776977831E-05</v>
+        <v>3.01466225574523E-33</v>
       </c>
       <c r="J3">
-        <v>2.046664025452917E-08</v>
+        <v>4.196935780412076E-36</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5726,22 +5726,22 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>75920.75951783855</v>
+        <v>1.55071799158686E-23</v>
       </c>
       <c r="F4">
-        <v>1183656897360.496</v>
+        <v>2.417676085249811E-16</v>
       </c>
       <c r="G4">
-        <v>1.282445262125651E-07</v>
+        <v>2.619456066869695E-35</v>
       </c>
       <c r="H4">
-        <v>1.999420434730568</v>
+        <v>4.083912306165221E-28</v>
       </c>
       <c r="I4">
-        <v>7.683079537879171E-06</v>
+        <v>1.312216943455058E-33</v>
       </c>
       <c r="J4">
-        <v>1.069451095689652E-11</v>
+        <v>1.826834907012856E-39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5758,22 +5758,22 @@
         <v>500</v>
       </c>
       <c r="E5">
-        <v>12602.86607348972</v>
+        <v>2.573817567231594E-24</v>
       </c>
       <c r="F5">
-        <v>196487356.6747136</v>
+        <v>4.012758743918349E-20</v>
       </c>
       <c r="G5">
-        <v>2.128862512413804E-08</v>
+        <v>4.347664809512827E-36</v>
       </c>
       <c r="H5">
-        <v>0.0003319043187072866</v>
+        <v>6.778308689051265E-32</v>
       </c>
       <c r="I5">
-        <v>1.275393226606345E-06</v>
+        <v>2.17796339463854E-34</v>
       </c>
       <c r="J5">
-        <v>1.775291635215617E-15</v>
+        <v>3.032105000142585E-43</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5790,22 +5790,22 @@
         <v>5000</v>
       </c>
       <c r="E6">
-        <v>35212.58849313654</v>
+        <v>7.090569881559716E-24</v>
       </c>
       <c r="F6">
-        <v>548988.4915340546</v>
+        <v>1.10546864913183E-22</v>
       </c>
       <c r="G6">
-        <v>5.948072380597389E-08</v>
+        <v>1.197731398912114E-35</v>
       </c>
       <c r="H6">
-        <v>9.273454248886058E-07</v>
+        <v>1.867345691101065E-34</v>
       </c>
       <c r="I6">
-        <v>3.563466960098177E-06</v>
+        <v>6.000037394170922E-34</v>
       </c>
       <c r="J6">
-        <v>4.960190280657748E-18</v>
+        <v>8.353098784255483E-46</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5822,22 +5822,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>3.797071632782721E-14</v>
+        <v>4.280762840521858E-14</v>
       </c>
       <c r="F7">
-        <v>0.5919896029042131</v>
+        <v>0.6674003914512555</v>
       </c>
       <c r="G7">
-        <v>6.413972352673515E-26</v>
+        <v>7.231018311692328E-26</v>
       </c>
       <c r="H7">
-        <v>9.999824373381979E-13</v>
+        <v>1.127365526100094E-12</v>
       </c>
       <c r="I7">
-        <v>3.842585815917682E-24</v>
+        <v>3.622379801305703E-24</v>
       </c>
       <c r="J7">
-        <v>5.348711530128258E-24</v>
+        <v>5.042984622694892E-24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5854,22 +5854,22 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>1.121208348364191E-14</v>
+        <v>9.417032497420988E-15</v>
       </c>
       <c r="F8">
-        <v>0.0001748040988193248</v>
+        <v>0.0001468180184053779</v>
       </c>
       <c r="G8">
-        <v>1.893933020885458E-26</v>
+        <v>1.590714948888681E-26</v>
       </c>
       <c r="H8">
-        <v>2.952771939515622E-16</v>
+        <v>2.480034094685438E-16</v>
       </c>
       <c r="I8">
-        <v>1.134647884679311E-24</v>
+        <v>7.968689128019682E-25</v>
       </c>
       <c r="J8">
-        <v>1.579380269994178E-27</v>
+        <v>1.109380543728573E-27</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5886,22 +5886,22 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>6.796085564631795E-15</v>
+        <v>6.259357883457631E-15</v>
       </c>
       <c r="F9">
-        <v>1.059556517178734E-07</v>
+        <v>9.758769773715975E-08</v>
       </c>
       <c r="G9">
-        <v>1.147987426458074E-26</v>
+        <v>1.057323966800276E-26</v>
       </c>
       <c r="H9">
-        <v>1.789791414153268E-19</v>
+        <v>1.648440840154726E-19</v>
       </c>
       <c r="I9">
-        <v>6.877547889524209E-25</v>
+        <v>5.29666613425761E-25</v>
       </c>
       <c r="J9">
-        <v>9.573246105089837E-31</v>
+        <v>7.373883284403758E-31</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5918,22 +5918,22 @@
         <v>500</v>
       </c>
       <c r="E10">
-        <v>2.522722905901335E-15</v>
+        <v>3.030710720733003E-15</v>
       </c>
       <c r="F10">
-        <v>3.933098650044224E-11</v>
+        <v>4.725086618314367E-11</v>
       </c>
       <c r="G10">
-        <v>4.261356259968471E-27</v>
+        <v>5.119443785021965E-27</v>
       </c>
       <c r="H10">
-        <v>6.643747719669297E-23</v>
+        <v>7.981565233639134E-23</v>
       </c>
       <c r="I10">
-        <v>2.552961912020323E-25</v>
+        <v>2.564586198156572E-25</v>
       </c>
       <c r="J10">
-        <v>3.55361141402129E-34</v>
+        <v>3.570351390601651E-34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5950,22 +5950,22 @@
         <v>5000</v>
       </c>
       <c r="E11">
-        <v>1.280963850118947E-13</v>
+        <v>1.814238925009319E-13</v>
       </c>
       <c r="F11">
-        <v>1.997110811446101E-12</v>
+        <v>2.828523358677155E-12</v>
       </c>
       <c r="G11">
-        <v>2.163790287363087E-25</v>
+        <v>3.064592778731958E-25</v>
       </c>
       <c r="H11">
-        <v>3.373497992307604E-24</v>
+        <v>4.777911078846546E-24</v>
       </c>
       <c r="I11">
-        <v>1.296318320327046E-23</v>
+        <v>1.535208251783266E-23</v>
       </c>
       <c r="J11">
-        <v>1.80441845122303E-35</v>
+        <v>2.137277709970299E-35</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5982,22 +5982,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>1.559702190454522E-19</v>
+        <v>2.913795622925644E-20</v>
       </c>
       <c r="F12">
-        <v>1.853956249932784E-10</v>
+        <v>3.46351350867536E-11</v>
       </c>
       <c r="G12">
-        <v>2.634632078470476E-31</v>
+        <v>4.921952065752777E-32</v>
       </c>
       <c r="H12">
-        <v>3.131682854616188E-22</v>
+        <v>5.850529575465136E-23</v>
       </c>
       <c r="I12">
-        <v>1.578397800650403E-29</v>
+        <v>2.465652689213706E-30</v>
       </c>
       <c r="J12">
-        <v>1.675076238116521E-33</v>
+        <v>2.617086472899014E-34</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6014,22 +6014,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>5.033643789729187E-21</v>
+        <v>6.91039108486334E-21</v>
       </c>
       <c r="F13">
-        <v>2.074792595401025E-12</v>
+        <v>2.848359727689648E-12</v>
       </c>
       <c r="G13">
-        <v>8.502776671839843E-33</v>
+        <v>1.167295791362051E-32</v>
       </c>
       <c r="H13">
-        <v>3.504717221961191E-24</v>
+        <v>4.811418458935216E-24</v>
       </c>
       <c r="I13">
-        <v>5.09398033521437E-31</v>
+        <v>5.847570168563779E-31</v>
       </c>
       <c r="J13">
-        <v>1.874605064549051E-35</v>
+        <v>2.152266389207148E-35</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6046,22 +6046,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>3.21116205951207E-21</v>
+        <v>4.401653697467852E-21</v>
       </c>
       <c r="F14">
-        <v>2.464899753257919E-14</v>
+        <v>3.378725493058392E-14</v>
       </c>
       <c r="G14">
-        <v>5.42426023566228E-33</v>
+        <v>7.435225840317319E-33</v>
       </c>
       <c r="H14">
-        <v>4.163682015638377E-26</v>
+        <v>5.707306576112148E-26</v>
       </c>
       <c r="I14">
-        <v>3.249653147431198E-31</v>
+        <v>3.724677596039485E-31</v>
       </c>
       <c r="J14">
-        <v>2.227072513804635E-37</v>
+        <v>2.553019285582056E-37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6078,22 +6078,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>4.806098647602007E-21</v>
+        <v>6.430771052459472E-21</v>
       </c>
       <c r="F15">
-        <v>6.895282969954497E-17</v>
+        <v>9.226191423229418E-17</v>
       </c>
       <c r="G15">
-        <v>8.118409877706094E-33</v>
+        <v>1.086278893996532E-32</v>
       </c>
       <c r="H15">
-        <v>1.164743744924746E-28</v>
+        <v>1.558478280950915E-28</v>
       </c>
       <c r="I15">
-        <v>4.863707688243502E-31</v>
+        <v>5.441715889220063E-31</v>
       </c>
       <c r="J15">
-        <v>6.229987713290997E-40</v>
+        <v>6.971458523153063E-40</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6110,22 +6110,22 @@
         <v>5000</v>
       </c>
       <c r="E16">
-        <v>1.431774973825259E-21</v>
+        <v>1.994573603470338E-21</v>
       </c>
       <c r="F16">
-        <v>2.213388802323121E-20</v>
+        <v>3.083422297524616E-20</v>
       </c>
       <c r="G16">
-        <v>2.418538807137261E-33</v>
+        <v>3.36921216802422E-33</v>
       </c>
       <c r="H16">
-        <v>3.738832436356624E-32</v>
+        <v>5.208483610683473E-32</v>
       </c>
       <c r="I16">
-        <v>1.448937164763168E-31</v>
+        <v>1.687807384477223E-31</v>
       </c>
       <c r="J16">
-        <v>1.999828738471616E-43</v>
+        <v>2.329883444910578E-43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6142,22 +6142,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>2.655970633421283E-12</v>
+        <v>3.692645741927562E-12</v>
       </c>
       <c r="F17">
-        <v>41.40841028727277</v>
+        <v>57.570888775348</v>
       </c>
       <c r="G17">
-        <v>4.486436880779194E-24</v>
+        <v>6.23757726676953E-24</v>
       </c>
       <c r="H17">
-        <v>6.994663899877158E-11</v>
+        <v>9.724812293133108E-11</v>
       </c>
       <c r="I17">
-        <v>2.687806833920356E-22</v>
+        <v>3.124715348002145E-22</v>
       </c>
       <c r="J17">
-        <v>3.741309652420607E-22</v>
+        <v>4.350148884055045E-22</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6174,22 +6174,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>5.835407102171938E-13</v>
+        <v>8.104778637157404E-13</v>
       </c>
       <c r="F18">
-        <v>0.009097801325037224</v>
+        <v>0.01263590774957579</v>
       </c>
       <c r="G18">
-        <v>9.857106591506652E-25</v>
+        <v>1.369050445465778E-24</v>
       </c>
       <c r="H18">
-        <v>1.536790764364396E-14</v>
+        <v>2.134443876617533E-14</v>
       </c>
       <c r="I18">
-        <v>5.905354106916924E-23</v>
+        <v>6.858260436991156E-23</v>
       </c>
       <c r="J18">
-        <v>8.219994845739955E-26</v>
+        <v>9.547894980453576E-26</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6206,22 +6206,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>4.016448716833376E-13</v>
+        <v>5.571047283252248E-13</v>
       </c>
       <c r="F19">
-        <v>6.261920002864966E-06</v>
+        <v>8.685646171378968E-06</v>
       </c>
       <c r="G19">
-        <v>6.78454175140773E-25</v>
+        <v>9.410552843331499E-25</v>
       </c>
       <c r="H19">
-        <v>1.057756757240704E-17</v>
+        <v>1.467169961381582E-17</v>
       </c>
       <c r="I19">
-        <v>4.064592497127603E-23</v>
+        <v>4.71421798001587E-23</v>
       </c>
       <c r="J19">
-        <v>5.657735128413056E-29</v>
+        <v>6.563013843187416E-29</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6238,22 +6238,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>1.198148213725465E-11</v>
+        <v>1.597702615798647E-11</v>
       </c>
       <c r="F20">
-        <v>1.867995534084562E-07</v>
+        <v>2.490928348361201E-07</v>
       </c>
       <c r="G20">
-        <v>2.023899009671393E-23</v>
+        <v>2.698821986146363E-23</v>
       </c>
       <c r="H20">
-        <v>3.155397861629328E-19</v>
+        <v>4.207649237096624E-19</v>
       </c>
       <c r="I20">
-        <v>1.212510001570473E-21</v>
+        <v>1.351975313646846E-21</v>
       </c>
       <c r="J20">
-        <v>1.687760934038371E-30</v>
+        <v>1.882185494333469E-30</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6270,22 +6270,22 @@
         <v>5000</v>
       </c>
       <c r="E21">
-        <v>2.172830923749245E-11</v>
+        <v>3.026922026535747E-11</v>
       </c>
       <c r="F21">
-        <v>3.387592966703231E-10</v>
+        <v>4.71917978328393E-10</v>
       </c>
       <c r="G21">
-        <v>3.670322506333185E-23</v>
+        <v>5.113043963742816E-23</v>
       </c>
       <c r="H21">
-        <v>5.72228541672843E-22</v>
+        <v>7.971587471763396E-22</v>
       </c>
       <c r="I21">
-        <v>2.19887589580903E-21</v>
+        <v>2.561380206644136E-21</v>
       </c>
       <c r="J21">
-        <v>3.06073915344063E-33</v>
+        <v>3.565888091117737E-33</v>
       </c>
     </row>
   </sheetData>
@@ -7032,22 +7032,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>1.931848208074322E-11</v>
+        <v>1.422141674388474E-23</v>
       </c>
       <c r="F2">
-        <v>301.1884326056314</v>
+        <v>2.217216756792591E-10</v>
       </c>
       <c r="G2">
-        <v>6.31322943815138E-30</v>
+        <v>4.647521811727039E-42</v>
       </c>
       <c r="H2">
-        <v>9.842759235478151E-17</v>
+        <v>7.24580639474703E-29</v>
       </c>
       <c r="I2">
-        <v>1.955004603748323E-21</v>
+        <v>1.203415715333547E-33</v>
       </c>
       <c r="J2">
-        <v>2.72128097236137E-21</v>
+        <v>1.675364616639295E-33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7064,22 +7064,22 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>4.297504201595237E-12</v>
+        <v>8.889497370037519E-25</v>
       </c>
       <c r="F3">
-        <v>0.06700104848738656</v>
+        <v>1.385933826655224E-14</v>
       </c>
       <c r="G3">
-        <v>1.404413137776221E-30</v>
+        <v>2.905064500012261E-43</v>
       </c>
       <c r="H3">
-        <v>2.189576747953809E-20</v>
+        <v>4.529195511945176E-33</v>
       </c>
       <c r="I3">
-        <v>4.349016896685301E-22</v>
+        <v>7.522289114493085E-35</v>
       </c>
       <c r="J3">
-        <v>6.053641462908478E-25</v>
+        <v>1.047233874211093E-37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7096,22 +7096,22 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>2.24559112175791E-12</v>
+        <v>3.517305907081353E-26</v>
       </c>
       <c r="F4">
-        <v>3.50103112350412E-05</v>
+        <v>5.483722006318236E-19</v>
       </c>
       <c r="G4">
-        <v>7.338533077640229E-31</v>
+        <v>1.149446374863187E-44</v>
       </c>
       <c r="H4">
-        <v>1.144127818138601E-23</v>
+        <v>1.792066015136679E-37</v>
       </c>
       <c r="I4">
-        <v>2.272508245122009E-22</v>
+        <v>2.976342849974725E-36</v>
       </c>
       <c r="J4">
-        <v>3.16323216586193E-28</v>
+        <v>4.143588482599237E-42</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7128,22 +7128,22 @@
         <v>500</v>
       </c>
       <c r="E5">
-        <v>3.727687175822231E-13</v>
+        <v>1.739090632162577E-26</v>
       </c>
       <c r="F5">
-        <v>5.811720884888575E-09</v>
+        <v>2.711361997650448E-22</v>
       </c>
       <c r="G5">
-        <v>1.218198423471317E-31</v>
+        <v>5.683302719485546E-45</v>
       </c>
       <c r="H5">
-        <v>1.899255191140057E-27</v>
+        <v>8.860660123040679E-41</v>
       </c>
       <c r="I5">
-        <v>3.772369671492159E-23</v>
+        <v>1.47161779647146E-36</v>
       </c>
       <c r="J5">
-        <v>5.250973725618027E-32</v>
+        <v>2.048748702555888E-45</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7160,22 +7160,22 @@
         <v>5000</v>
       </c>
       <c r="E6">
-        <v>126436.2695770597</v>
+        <v>2.545979274356973E-23</v>
       </c>
       <c r="F6">
-        <v>1971228.46915479</v>
+        <v>3.969356929209101E-22</v>
       </c>
       <c r="G6">
-        <v>4.131904234544436E-14</v>
+        <v>8.320193707048933E-42</v>
       </c>
       <c r="H6">
-        <v>6.441923101813038E-13</v>
+        <v>1.297175467061798E-40</v>
       </c>
       <c r="I6">
-        <v>1.279518173688759E-05</v>
+        <v>2.154406642356612E-33</v>
       </c>
       <c r="J6">
-        <v>1.78103338128918E-17</v>
+        <v>2.999309891392372E-45</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7192,22 +7192,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>9.082443009905024E-16</v>
+        <v>1.29199895569398E-16</v>
       </c>
       <c r="F7">
-        <v>0.01416015379960963</v>
+        <v>0.002014315300587071</v>
       </c>
       <c r="G7">
-        <v>2.968118630687916E-34</v>
+        <v>4.22221880945745E-35</v>
       </c>
       <c r="H7">
-        <v>4.627501241702495E-21</v>
+        <v>6.582729740480626E-22</v>
       </c>
       <c r="I7">
-        <v>9.191311109968417E-26</v>
+        <v>1.093288998893335E-26</v>
       </c>
       <c r="J7">
-        <v>1.279390339370815E-25</v>
+        <v>1.522049015289131E-26</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7224,22 +7224,22 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>5.184873862634033E-16</v>
+        <v>5.226009322829701E-17</v>
       </c>
       <c r="F8">
-        <v>8.083575228207429E-06</v>
+        <v>8.147708242018046E-07</v>
       </c>
       <c r="G8">
-        <v>1.694403223083017E-34</v>
+        <v>1.707846183931275E-35</v>
       </c>
       <c r="H8">
-        <v>2.641691251048179E-24</v>
+        <v>2.662649752293479E-25</v>
       </c>
       <c r="I8">
-        <v>5.247023150648031E-26</v>
+        <v>4.422246996085822E-27</v>
       </c>
       <c r="J8">
-        <v>7.30362692446951E-29</v>
+        <v>6.156539297999859E-30</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7256,22 +7256,22 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>2.762482399524739E-16</v>
+        <v>3.483576652616223E-17</v>
       </c>
       <c r="F9">
-        <v>4.306900203318096E-09</v>
+        <v>5.431135777012802E-10</v>
       </c>
       <c r="G9">
-        <v>9.027720259884767E-35</v>
+        <v>1.13842374268504E-35</v>
       </c>
       <c r="H9">
-        <v>1.407483726574541E-27</v>
+        <v>1.774880972880001E-28</v>
       </c>
       <c r="I9">
-        <v>2.795595319690253E-26</v>
+        <v>2.947801168354097E-27</v>
       </c>
       <c r="J9">
-        <v>3.891346514125627E-32</v>
+        <v>4.103853482567823E-33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7288,22 +7288,22 @@
         <v>500</v>
       </c>
       <c r="E10">
-        <v>5.405351680309072E-17</v>
+        <v>1.739406234444001E-17</v>
       </c>
       <c r="F10">
-        <v>8.427315321514493E-13</v>
+        <v>2.711854043330184E-13</v>
       </c>
       <c r="G10">
-        <v>1.766454797486625E-35</v>
+        <v>5.6843340994902E-36</v>
       </c>
       <c r="H10">
-        <v>2.754024614874018E-31</v>
+        <v>8.862268115458119E-32</v>
       </c>
       <c r="I10">
-        <v>5.470143759595223E-27</v>
+        <v>1.47188485899561E-27</v>
       </c>
       <c r="J10">
-        <v>7.614201061484606E-36</v>
+        <v>2.049120500179677E-36</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7320,22 +7320,22 @@
         <v>5000</v>
       </c>
       <c r="E11">
-        <v>1.795770631050275E-14</v>
+        <v>2.543363717045903E-14</v>
       </c>
       <c r="F11">
-        <v>2.799730017217014E-13</v>
+        <v>3.965279095331579E-13</v>
       </c>
       <c r="G11">
-        <v>5.868531474020506E-33</v>
+        <v>8.311646134136939E-33</v>
       </c>
       <c r="H11">
-        <v>9.149444500709195E-32</v>
+        <v>1.295842841611627E-31</v>
       </c>
       <c r="I11">
-        <v>1.817295911917865E-24</v>
+        <v>2.152193358807453E-24</v>
       </c>
       <c r="J11">
-        <v>2.529596491369098E-36</v>
+        <v>2.996228614575388E-36</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7352,22 +7352,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>1.472256416941038E-20</v>
+        <v>3.622576767713624E-24</v>
       </c>
       <c r="F12">
-        <v>1.750012920669211E-11</v>
+        <v>4.306013596997512E-15</v>
       </c>
       <c r="G12">
-        <v>4.81129548019947E-39</v>
+        <v>1.183848616899877E-42</v>
       </c>
       <c r="H12">
-        <v>5.718996472775198E-30</v>
+        <v>1.407193985946899E-33</v>
       </c>
       <c r="I12">
-        <v>1.489903844923103E-30</v>
+        <v>3.065423010083272E-34</v>
       </c>
       <c r="J12">
-        <v>1.581161939455781E-34</v>
+        <v>3.253693080334306E-38</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7384,22 +7384,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>1.326081530976592E-24</v>
+        <v>2.617471396976937E-25</v>
       </c>
       <c r="F13">
-        <v>5.465909500752164E-16</v>
+        <v>1.078882515326715E-16</v>
       </c>
       <c r="G13">
-        <v>4.333599774433309E-43</v>
+        <v>8.553828094695871E-44</v>
       </c>
       <c r="H13">
-        <v>1.786244934886328E-34</v>
+        <v>3.525759854008874E-35</v>
       </c>
       <c r="I13">
-        <v>1.341976811205616E-34</v>
+        <v>2.214903247886727E-35</v>
       </c>
       <c r="J13">
-        <v>4.938528147434568E-39</v>
+        <v>8.152209684288726E-40</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7416,22 +7416,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>2.897543604410497E-27</v>
+        <v>3.863827014776386E-27</v>
       </c>
       <c r="F14">
-        <v>2.224165078934301E-20</v>
+        <v>2.965887762388654E-20</v>
       </c>
       <c r="G14">
-        <v>9.469096746439531E-46</v>
+        <v>1.262688566920387E-45</v>
       </c>
       <c r="H14">
-        <v>7.268513329850656E-39</v>
+        <v>9.692443667936779E-39</v>
       </c>
       <c r="I14">
-        <v>2.932275456481463E-37</v>
+        <v>3.269568872532784E-37</v>
       </c>
       <c r="J14">
-        <v>2.009565259971199E-43</v>
+        <v>2.241072461141544E-43</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7448,22 +7448,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>1.247216236988837E-21</v>
+        <v>1.662013364812413E-21</v>
       </c>
       <c r="F15">
-        <v>1.789374190862846E-17</v>
+        <v>2.384481320612462E-17</v>
       </c>
       <c r="G15">
-        <v>4.075870055519076E-40</v>
+        <v>5.431416224877166E-40</v>
       </c>
       <c r="H15">
-        <v>5.847628074715183E-36</v>
+        <v>7.792422616380593E-36</v>
       </c>
       <c r="I15">
-        <v>1.2621661862416E-31</v>
+        <v>1.406395043707367E-31</v>
       </c>
       <c r="J15">
-        <v>1.616725415350012E-40</v>
+        <v>1.801752409345134E-40</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7480,22 +7480,22 @@
         <v>5000</v>
       </c>
       <c r="E16">
-        <v>2.633571948589003E-21</v>
+        <v>3.668770014509735E-21</v>
       </c>
       <c r="F16">
-        <v>4.07125335173696E-20</v>
+        <v>5.671571732197173E-20</v>
       </c>
       <c r="G16">
-        <v>8.60644427643465E-40</v>
+        <v>1.198944449186188E-39</v>
       </c>
       <c r="H16">
-        <v>1.330474951548026E-38</v>
+        <v>1.853454814443521E-38</v>
       </c>
       <c r="I16">
-        <v>2.665139663807304E-31</v>
+        <v>3.104511717022843E-31</v>
       </c>
       <c r="J16">
-        <v>3.678436181594942E-43</v>
+        <v>4.285530754602552E-43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7512,22 +7512,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>7.338397201916457E-17</v>
+        <v>9.590623639017829E-17</v>
       </c>
       <c r="F17">
-        <v>0.001144106634178029</v>
+        <v>0.001495244237861553</v>
       </c>
       <c r="G17">
-        <v>2.398169020234136E-35</v>
+        <v>3.134190731705173E-35</v>
       </c>
       <c r="H17">
-        <v>3.738910569209245E-22</v>
+        <v>4.886419077978932E-22</v>
       </c>
       <c r="I17">
-        <v>7.426360028659426E-27</v>
+        <v>8.115581882519798E-27</v>
       </c>
       <c r="J17">
-        <v>1.033716861901445E-26</v>
+        <v>1.12983057776041E-26</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7544,22 +7544,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>9.050966101854457E-18</v>
+        <v>1.07952918922773E-17</v>
       </c>
       <c r="F18">
-        <v>1.411107913339415E-07</v>
+        <v>1.683060310310981E-07</v>
       </c>
       <c r="G18">
-        <v>2.957832059429561E-36</v>
+        <v>3.527873167410884E-36</v>
       </c>
       <c r="H18">
-        <v>4.611463769083056E-26</v>
+        <v>5.500197092519546E-26</v>
       </c>
       <c r="I18">
-        <v>9.159456899118197E-28</v>
+        <v>9.13497167598693E-28</v>
       </c>
       <c r="J18">
-        <v>1.274956372427202E-30</v>
+        <v>1.271747420691508E-30</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7576,22 +7576,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>1.034806408277932E-18</v>
+        <v>1.276279783350259E-18</v>
       </c>
       <c r="F19">
-        <v>1.613334416528355E-11</v>
+        <v>1.989808028948052E-11</v>
       </c>
       <c r="G19">
-        <v>3.381720288489975E-37</v>
+        <v>4.170848965196926E-37</v>
       </c>
       <c r="H19">
-        <v>5.272334694537109E-30</v>
+        <v>6.502640617477295E-30</v>
       </c>
       <c r="I19">
-        <v>1.047210274449157E-28</v>
+        <v>1.079987441551235E-28</v>
       </c>
       <c r="J19">
-        <v>1.457670937682704E-34</v>
+        <v>1.503530926956723E-34</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7608,22 +7608,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>1.247254245486113E-12</v>
+        <v>1.662064014055731E-12</v>
       </c>
       <c r="F20">
-        <v>1.94455521758172E-08</v>
+        <v>2.591272198257571E-08</v>
       </c>
       <c r="G20">
-        <v>4.075994266294488E-31</v>
+        <v>5.431581745280168E-31</v>
       </c>
       <c r="H20">
-        <v>6.354755613012155E-27</v>
+        <v>8.468209798227357E-27</v>
       </c>
       <c r="I20">
-        <v>1.262204650333575E-22</v>
+        <v>1.406437903076779E-22</v>
       </c>
       <c r="J20">
-        <v>1.756933713400592E-31</v>
+        <v>1.958006920046007E-31</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7640,22 +7640,22 @@
         <v>5000</v>
       </c>
       <c r="E21">
-        <v>2.633652104186933E-12</v>
+        <v>3.668881677475443E-12</v>
       </c>
       <c r="F21">
-        <v>4.106044905460131E-11</v>
+        <v>5.720039065366547E-11</v>
       </c>
       <c r="G21">
-        <v>8.606706222833115E-31</v>
+        <v>1.198980940351452E-30</v>
       </c>
       <c r="H21">
-        <v>1.341844740346448E-29</v>
+        <v>1.86929381221129E-29</v>
       </c>
       <c r="I21">
-        <v>2.665220780202637E-22</v>
+        <v>3.104606206179706E-22</v>
       </c>
       <c r="J21">
-        <v>3.709870852683297E-34</v>
+        <v>4.322153450514476E-34</v>
       </c>
     </row>
   </sheetData>
@@ -7717,22 +7717,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>4.093164026307966E-05</v>
+        <v>7.829996614787499E-06</v>
       </c>
       <c r="F2">
-        <v>638152445.0672696</v>
+        <v>122075036.6337539</v>
       </c>
       <c r="G2">
-        <v>1.189873263461618E-21</v>
+        <v>2.276161806624273E-22</v>
       </c>
       <c r="H2">
-        <v>1.855094317056016E-08</v>
+        <v>3.548692925399823E-09</v>
       </c>
       <c r="I2">
-        <v>4.142227366458408E-15</v>
+        <v>6.62573999970542E-16</v>
       </c>
       <c r="J2">
-        <v>5.765799473784226E-15</v>
+        <v>9.224185967590933E-16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7877,22 +7877,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>47062.28920595385</v>
+        <v>11374.12649140151</v>
       </c>
       <c r="F7">
-        <v>7.33733481829999E+17</v>
+        <v>1.77330460844966E+17</v>
       </c>
       <c r="G7">
-        <v>1.368089802498658E-12</v>
+        <v>3.306432119593463E-13</v>
       </c>
       <c r="H7">
-        <v>21.32946168110462</v>
+        <v>5.154955257121103</v>
       </c>
       <c r="I7">
-        <v>4.76264085739365E-06</v>
+        <v>9.62478128195632E-07</v>
       </c>
       <c r="J7">
-        <v>6.629387940349143E-06</v>
+        <v>1.339937462775487E-06</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8037,22 +8037,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.1782088686874974</v>
+        <v>0.003247937691936157</v>
       </c>
       <c r="F12">
-        <v>211829827.4623538</v>
+        <v>3860694.95844109</v>
       </c>
       <c r="G12">
-        <v>5.1804903688226E-18</v>
+        <v>9.441679337023711E-20</v>
       </c>
       <c r="H12">
-        <v>6.157843821580052E-09</v>
+        <v>1.122295046058456E-10</v>
       </c>
       <c r="I12">
-        <v>1.803449967014356E-11</v>
+        <v>2.748403574194435E-13</v>
       </c>
       <c r="J12">
-        <v>1.913913073835351E-15</v>
+        <v>2.917203159860012E-17</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8069,22 +8069,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0.0002842364342722951</v>
+        <v>0.0003572899701213342</v>
       </c>
       <c r="F13">
-        <v>117158.0019974111</v>
+        <v>147269.57555705</v>
       </c>
       <c r="G13">
-        <v>8.262687042799278E-21</v>
+        <v>1.038633634073646E-20</v>
       </c>
       <c r="H13">
-        <v>3.405755872017765E-12</v>
+        <v>4.281092312704941E-12</v>
       </c>
       <c r="I13">
-        <v>2.876434780086854E-14</v>
+        <v>3.023386296305219E-14</v>
       </c>
       <c r="J13">
-        <v>1.058539462612381E-18</v>
+        <v>1.112792582141075E-18</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8101,22 +8101,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>3.125235520876974E-05</v>
+        <v>4.177437171263705E-05</v>
       </c>
       <c r="F14">
-        <v>239.8942227616209</v>
+        <v>320.6616066665589</v>
       </c>
       <c r="G14">
-        <v>9.084986979293529E-22</v>
+        <v>1.214371270716193E-21</v>
       </c>
       <c r="H14">
-        <v>6.973669266326188E-15</v>
+        <v>9.3215583333302E-15</v>
       </c>
       <c r="I14">
-        <v>3.162696637124821E-15</v>
+        <v>3.534945661358931E-15</v>
       </c>
       <c r="J14">
-        <v>2.167478937132372E-21</v>
+        <v>2.422970636849261E-21</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8133,22 +8133,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>1.353460422966676E-13</v>
+        <v>4.01712935655457E-28</v>
       </c>
       <c r="F15">
-        <v>1.941802132930826E-09</v>
+        <v>5.76335312097172E-24</v>
       </c>
       <c r="G15">
-        <v>3.934477973740338E-30</v>
+        <v>1.167770161789119E-44</v>
       </c>
       <c r="H15">
-        <v>5.644773642240773E-26</v>
+        <v>1.675393349119686E-40</v>
       </c>
       <c r="I15">
-        <v>1.36968388449555E-23</v>
+        <v>3.399293252751535E-38</v>
       </c>
       <c r="J15">
-        <v>1.754446261671133E-32</v>
+        <v>4.354882247075182E-47</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8197,22 +8197,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>2484514.711706169</v>
+        <v>3175066.063785031</v>
       </c>
       <c r="F17">
-        <v>3.873529445412952E+19</v>
+        <v>4.950146534152308E+19</v>
       </c>
       <c r="G17">
-        <v>7.222426487517935E-11</v>
+        <v>9.229843208677415E-11</v>
       </c>
       <c r="H17">
-        <v>1126.026001573533</v>
+        <v>1438.996085509392</v>
       </c>
       <c r="I17">
-        <v>0.0002514295729428826</v>
+        <v>0.0002686739631636309</v>
       </c>
       <c r="J17">
-        <v>0.0003499789777612685</v>
+        <v>0.0003740410280181825</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8229,22 +8229,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>278705.2081049398</v>
+        <v>354565.7558257714</v>
       </c>
       <c r="F18">
-        <v>4345206027953293</v>
+        <v>5527924181954498</v>
       </c>
       <c r="G18">
-        <v>8.101895584445924E-12</v>
+        <v>1.030714406470266E-11</v>
       </c>
       <c r="H18">
-        <v>0.1263141287195725</v>
+        <v>0.160695470405654</v>
       </c>
       <c r="I18">
-        <v>2.820459509481448E-05</v>
+        <v>3.000334005845999E-05</v>
       </c>
       <c r="J18">
-        <v>3.925956379719922E-08</v>
+        <v>4.176988356929339E-08</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8261,22 +8261,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>31250.86686774322</v>
+        <v>41772.31134400397</v>
       </c>
       <c r="F19">
-        <v>487222524529.7701</v>
+        <v>651259085855.2052</v>
       </c>
       <c r="G19">
-        <v>9.084554322018378E-13</v>
+        <v>1.214311376279185E-12</v>
       </c>
       <c r="H19">
-        <v>1.416344548051657E-05</v>
+        <v>1.893195017020945E-05</v>
       </c>
       <c r="I19">
-        <v>3.162546018999307E-06</v>
+        <v>3.534771313047713E-06</v>
       </c>
       <c r="J19">
-        <v>4.40212585137622E-12</v>
+        <v>4.921018323373286E-12</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8293,22 +8293,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>0.0001353460475662992</v>
+        <v>4.017129512959524E-19</v>
       </c>
       <c r="F20">
-        <v>2.110138040632878</v>
+        <v>6.262981410885025E-15</v>
       </c>
       <c r="G20">
-        <v>3.934478126927301E-21</v>
+        <v>1.167770207255675E-35</v>
       </c>
       <c r="H20">
-        <v>6.134122211142089E-17</v>
+        <v>1.820634131071228E-31</v>
       </c>
       <c r="I20">
-        <v>1.369683937823517E-14</v>
+        <v>3.399293385101344E-29</v>
       </c>
       <c r="J20">
-        <v>1.906540184612253E-23</v>
+        <v>4.732409412981882E-38</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8402,22 +8402,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>1.199252789580236E-06</v>
+        <v>2.898382793101802E-07</v>
       </c>
       <c r="F2">
-        <v>18697176.43870426</v>
+        <v>4518778.270967962</v>
       </c>
       <c r="G2">
-        <v>1.164323096679841E-24</v>
+        <v>2.813963876797867E-25</v>
       </c>
       <c r="H2">
-        <v>1.815259848417889E-11</v>
+        <v>4.387163369871808E-12</v>
       </c>
       <c r="I2">
-        <v>1.213627817593618E-16</v>
+        <v>2.452610358789243E-17</v>
       </c>
       <c r="J2">
-        <v>1.689316885092682E-16</v>
+        <v>3.414461487549728E-17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8562,22 +8562,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>1242.437436680007</v>
+        <v>300.2752479933184</v>
       </c>
       <c r="F7">
-        <v>1.937045481110664E+16</v>
+        <v>4681497796533684</v>
       </c>
       <c r="G7">
-        <v>1.206249938524279E-15</v>
+        <v>2.915293669838042E-16</v>
       </c>
       <c r="H7">
-        <v>0.01880626680689965</v>
+        <v>0.004545143491780276</v>
       </c>
       <c r="I7">
-        <v>1.257330104107865E-07</v>
+        <v>2.540927945988376E-08</v>
       </c>
       <c r="J7">
-        <v>1.750148558077946E-07</v>
+        <v>3.537414976302675E-08</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8722,22 +8722,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.08095849533128756</v>
+        <v>0.1033162670969366</v>
       </c>
       <c r="F12">
-        <v>96232158.49998584</v>
+        <v>122807956.7217069</v>
       </c>
       <c r="G12">
-        <v>7.860048090416267E-20</v>
+        <v>1.00307055433919E-19</v>
       </c>
       <c r="H12">
-        <v>9.342928009707363E-11</v>
+        <v>1.192310259434047E-10</v>
       </c>
       <c r="I12">
-        <v>8.192891678739759E-12</v>
+        <v>8.742618384171543E-12</v>
       </c>
       <c r="J12">
-        <v>8.694714454660589E-16</v>
+        <v>9.2795665873891E-16</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8754,22 +8754,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0.009211453540904311</v>
+        <v>0.01171896904145578</v>
       </c>
       <c r="F13">
-        <v>3796823.215529331</v>
+        <v>4830383.556849668</v>
       </c>
       <c r="G13">
-        <v>8.943158777577E-21</v>
+        <v>1.137763984607358E-20</v>
       </c>
       <c r="H13">
-        <v>3.686236131581875E-12</v>
+        <v>4.689692773640454E-12</v>
       </c>
       <c r="I13">
-        <v>9.321868045539991E-13</v>
+        <v>9.916586909710987E-13</v>
       </c>
       <c r="J13">
-        <v>3.430484591474546E-17</v>
+        <v>3.649915449696026E-17</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8786,22 +8786,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>0.001046072240035513</v>
+        <v>0.00139826058214835</v>
       </c>
       <c r="F14">
-        <v>8029.688812234186</v>
+        <v>10733.09942024988</v>
       </c>
       <c r="G14">
-        <v>1.015604116539333E-21</v>
+        <v>1.357534545775097E-21</v>
       </c>
       <c r="H14">
-        <v>7.795814380809889E-15</v>
+        <v>1.042048487402901E-14</v>
       </c>
       <c r="I14">
-        <v>1.058611145831842E-13</v>
+        <v>1.183207544643765E-13</v>
       </c>
       <c r="J14">
-        <v>7.254939769658108E-20</v>
+        <v>8.110102424794405E-20</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8882,22 +8882,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>80827313.91638394</v>
+        <v>103285775.5722264</v>
       </c>
       <c r="F17">
-        <v>1.26015345762934E+21</v>
+        <v>1.610296333067752E+21</v>
       </c>
       <c r="G17">
-        <v>7.847312030716887E-11</v>
+        <v>1.002774520118703E-10</v>
       </c>
       <c r="H17">
-        <v>1223.449958863437</v>
+        <v>1563.394498124031</v>
       </c>
       <c r="I17">
-        <v>0.008179616294628786</v>
+        <v>0.008740038192571683</v>
       </c>
       <c r="J17">
-        <v>0.01138566842303756</v>
+        <v>0.0121676579002063</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8914,22 +8914,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>9210455.573263599</v>
+        <v>11717700.7574305</v>
       </c>
       <c r="F18">
-        <v>1.435973419702724E+17</v>
+        <v>1.826870201355144E+17</v>
       </c>
       <c r="G18">
-        <v>8.94218987695495E-12</v>
+        <v>1.13764085023597E-11</v>
       </c>
       <c r="H18">
-        <v>0.1394148951167694</v>
+        <v>0.1773660389665188</v>
       </c>
       <c r="I18">
-        <v>0.0009320858115606661</v>
+        <v>0.0009915513688276707</v>
       </c>
       <c r="J18">
-        <v>1.297422716419638E-06</v>
+        <v>1.380412485683474E-06</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8946,22 +8946,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>1046067.631977184</v>
+        <v>1398254.422661764</v>
       </c>
       <c r="F19">
-        <v>16308914393887.58</v>
+        <v>21799748871842.35</v>
       </c>
       <c r="G19">
-        <v>1.015599642696295E-12</v>
+        <v>1.357528565691033E-12</v>
       </c>
       <c r="H19">
-        <v>1.583389746979377E-05</v>
+        <v>2.116480472994403E-05</v>
       </c>
       <c r="I19">
-        <v>0.0001058606482538313</v>
+        <v>0.0001183202332488683</v>
       </c>
       <c r="J19">
-        <v>1.473533961314786E-10</v>
+        <v>1.647224061410228E-10</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -9087,22 +9087,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>871.4207229845706</v>
+        <v>1.199264300906807E-06</v>
       </c>
       <c r="F2">
-        <v>1.358604887272238E+16</v>
+        <v>18697355.90820877</v>
       </c>
       <c r="G2">
-        <v>9.868864359961162E-10</v>
+        <v>1.358170216202499E-18</v>
       </c>
       <c r="H2">
-        <v>15386.23881395513</v>
+        <v>2.117480850306768E-05</v>
       </c>
       <c r="I2">
-        <v>8.818661415094913E-08</v>
+        <v>1.014816971150457E-16</v>
       </c>
       <c r="J2">
-        <v>1.227519130368481E-07</v>
+        <v>1.412802262898237E-16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9119,22 +9119,22 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0.3696847657334931</v>
+        <v>2.53750783288301E-08</v>
       </c>
       <c r="F3">
-        <v>5763639952.873935</v>
+        <v>395.6149368859437</v>
       </c>
       <c r="G3">
-        <v>4.186690438657906E-13</v>
+        <v>2.873734805077022E-20</v>
       </c>
       <c r="H3">
-        <v>0.006527338564976144</v>
+        <v>4.480350361109215E-10</v>
       </c>
       <c r="I3">
-        <v>3.741160490373238E-11</v>
+        <v>2.147238111973956E-18</v>
       </c>
       <c r="J3">
-        <v>5.2075319093793E-14</v>
+        <v>2.989330046519665E-21</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9151,22 +9151,22 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>6.812587575381409E-06</v>
+        <v>1.174365184054126E-08</v>
       </c>
       <c r="F4">
-        <v>106.2129294238414</v>
+        <v>0.1830916153834164</v>
       </c>
       <c r="G4">
-        <v>7.71527471730624E-18</v>
+        <v>1.329971895871037E-20</v>
       </c>
       <c r="H4">
-        <v>1.202864432886086E-10</v>
+        <v>2.07351772801151E-13</v>
       </c>
       <c r="I4">
-        <v>6.894247704163765E-16</v>
+        <v>9.93747348441224E-19</v>
       </c>
       <c r="J4">
-        <v>9.59649151726608E-22</v>
+        <v>1.38346967240335E-24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9183,22 +9183,22 @@
         <v>500</v>
       </c>
       <c r="E5">
-        <v>1.104231125178862E-06</v>
+        <v>5.859072642804184E-09</v>
       </c>
       <c r="F5">
-        <v>0.01721572328700161</v>
+        <v>9.134697531788872E-05</v>
       </c>
       <c r="G5">
-        <v>1.250544875627251E-18</v>
+        <v>6.63541635651663E-21</v>
       </c>
       <c r="H5">
-        <v>1.949685536466773E-14</v>
+        <v>1.034507081742794E-16</v>
       </c>
       <c r="I5">
-        <v>1.117467161397089E-16</v>
+        <v>4.9579449239214E-19</v>
       </c>
       <c r="J5">
-        <v>1.55546545400363E-25</v>
+        <v>6.902324268286674E-28</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9215,22 +9215,22 @@
         <v>5000</v>
       </c>
       <c r="E6">
-        <v>2.417480236008552E-05</v>
+        <v>4.807764874370741E-06</v>
       </c>
       <c r="F6">
-        <v>0.00037690180837981</v>
+        <v>7.495636358984704E-05</v>
       </c>
       <c r="G6">
-        <v>2.737803211787714E-17</v>
+        <v>5.444807332243196E-18</v>
       </c>
       <c r="H6">
-        <v>4.268423650960476E-16</v>
+        <v>8.488829398623673E-17</v>
       </c>
       <c r="I6">
-        <v>2.446457734678021E-15</v>
+        <v>4.068328711296824E-16</v>
       </c>
       <c r="J6">
-        <v>3.405362253521655E-27</v>
+        <v>5.663823303051418E-28</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9247,22 +9247,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>23837.07307452596</v>
+        <v>35.76744801275943</v>
       </c>
       <c r="F7">
-        <v>3.716363763578968E+17</v>
+        <v>557639133356380.8</v>
       </c>
       <c r="G7">
-        <v>2.699555274578251E-08</v>
+        <v>4.050673614129041E-11</v>
       </c>
       <c r="H7">
-        <v>420879.2484234392</v>
+        <v>631.5278973458445</v>
       </c>
       <c r="I7">
-        <v>2.412279981719484E-06</v>
+        <v>3.026640018438321E-09</v>
       </c>
       <c r="J7">
-        <v>3.35778831501235E-06</v>
+        <v>4.213610915651561E-09</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9279,22 +9279,22 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>12597.76788192852</v>
+        <v>17.61236383488004</v>
       </c>
       <c r="F8">
-        <v>196407872359174.5</v>
+        <v>274588874826.523</v>
       </c>
       <c r="G8">
-        <v>1.426700779380353E-08</v>
+        <v>1.994605190813142E-11</v>
       </c>
       <c r="H8">
-        <v>222.4324715279439</v>
+        <v>0.3109726781727327</v>
       </c>
       <c r="I8">
-        <v>1.274877296424497E-06</v>
+        <v>1.490357522374189E-09</v>
       </c>
       <c r="J8">
-        <v>1.774573482949255E-09</v>
+        <v>2.074837670235896E-12</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9311,22 +9311,22 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>6589.684456092289</v>
+        <v>11.73963701716522</v>
       </c>
       <c r="F9">
-        <v>102737716369.2652</v>
+        <v>183029021.5235695</v>
       </c>
       <c r="G9">
-        <v>7.462836303615277E-09</v>
+        <v>1.329517215987001E-11</v>
       </c>
       <c r="H9">
-        <v>0.1163507546650795</v>
+        <v>0.0002072808850776552</v>
       </c>
       <c r="I9">
-        <v>6.668672722351671E-07</v>
+        <v>9.93407614247928E-10</v>
       </c>
       <c r="J9">
-        <v>9.282501000482092E-13</v>
+        <v>1.382996703138235E-15</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9343,22 +9343,22 @@
         <v>500</v>
       </c>
       <c r="E10">
-        <v>1104.231139253169</v>
+        <v>5.859072269904924</v>
       </c>
       <c r="F10">
-        <v>17215723.50642973</v>
+        <v>91346.96950413259</v>
       </c>
       <c r="G10">
-        <v>1.250544891566442E-09</v>
+        <v>6.635415934207162E-12</v>
       </c>
       <c r="H10">
-        <v>1.94968556131707E-05</v>
+        <v>1.034507015901841E-07</v>
       </c>
       <c r="I10">
-        <v>1.1174671756401E-07</v>
+        <v>4.957944608374195E-10</v>
       </c>
       <c r="J10">
-        <v>1.555465473829278E-16</v>
+        <v>6.902323828989916E-19</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9375,22 +9375,22 @@
         <v>5000</v>
       </c>
       <c r="E11">
-        <v>24172.28629727439</v>
+        <v>4807.764874469872</v>
       </c>
       <c r="F11">
-        <v>376862.5812287712</v>
+        <v>74956.36359139255</v>
       </c>
       <c r="G11">
-        <v>2.737518266961991E-08</v>
+        <v>5.444807332355461E-09</v>
       </c>
       <c r="H11">
-        <v>4.26797940236434E-07</v>
+        <v>8.488829398798704E-08</v>
       </c>
       <c r="I11">
-        <v>2.446203112479521E-06</v>
+        <v>4.068328711380708E-07</v>
       </c>
       <c r="J11">
-        <v>3.40500783054864E-18</v>
+        <v>5.6638233031682E-19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9407,22 +9407,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.2055377931867361</v>
+        <v>4.31668160651757E-07</v>
       </c>
       <c r="F12">
-        <v>244314638.145693</v>
+        <v>513.1068541386709</v>
       </c>
       <c r="G12">
-        <v>2.327721327143104E-13</v>
+        <v>4.8886541410165E-19</v>
       </c>
       <c r="H12">
-        <v>0.0002766870194175459</v>
+        <v>5.810949650494574E-10</v>
       </c>
       <c r="I12">
-        <v>2.080015035575096E-11</v>
+        <v>3.65277424670666E-17</v>
       </c>
       <c r="J12">
-        <v>2.207418028320378E-15</v>
+        <v>3.877117856634725E-21</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9439,22 +9439,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>2.699684577595219E-05</v>
+        <v>3.262621432507891E-08</v>
       </c>
       <c r="F13">
-        <v>11127.69557301999</v>
+        <v>13.4480369937505</v>
       </c>
       <c r="G13">
-        <v>3.057400427627654E-17</v>
+        <v>3.694928009635211E-20</v>
       </c>
       <c r="H13">
-        <v>1.260214674181199E-08</v>
+        <v>1.522993997027237E-11</v>
       </c>
       <c r="I13">
-        <v>2.732044762009556E-15</v>
+        <v>2.760828949585747E-18</v>
       </c>
       <c r="J13">
-        <v>1.005403360518135E-19</v>
+        <v>1.01615528899295E-22</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9471,22 +9471,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>3.96903830934705E-09</v>
+        <v>1.266484100625281E-09</v>
       </c>
       <c r="F14">
-        <v>0.03046648337289874</v>
+        <v>0.009721578323613721</v>
       </c>
       <c r="G14">
-        <v>4.494947122703342E-21</v>
+        <v>1.434296829700205E-21</v>
       </c>
       <c r="H14">
-        <v>3.450337867825451E-14</v>
+        <v>1.100971497577998E-14</v>
       </c>
       <c r="I14">
-        <v>4.016613797499984E-19</v>
+        <v>1.071698338752296E-19</v>
       </c>
       <c r="J14">
-        <v>2.75269075841272E-25</v>
+        <v>7.345780826963846E-26</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9503,22 +9503,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>0.001049537494301584</v>
+        <v>0.00139362709785139</v>
       </c>
       <c r="F15">
-        <v>15.05765599380121</v>
+        <v>19.99429037744869</v>
       </c>
       <c r="G15">
-        <v>1.188604183807003E-15</v>
+        <v>1.578286634033284E-15</v>
       </c>
       <c r="H15">
-        <v>1.705283804507498E-11</v>
+        <v>2.264359046143679E-11</v>
       </c>
       <c r="I15">
-        <v>1.062117936901146E-13</v>
+        <v>1.179286692087277E-13</v>
       </c>
       <c r="J15">
-        <v>1.360480958375565E-22</v>
+        <v>1.510800715832881E-22</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9535,22 +9535,22 @@
         <v>5000</v>
       </c>
       <c r="E16">
-        <v>0.00227101595773408</v>
+        <v>0.003021829617859344</v>
       </c>
       <c r="F16">
-        <v>0.03510776052549729</v>
+        <v>0.04671463016865476</v>
       </c>
       <c r="G16">
-        <v>2.571932001963851E-15</v>
+        <v>3.422230597802202E-15</v>
       </c>
       <c r="H16">
-        <v>3.975963819422116E-14</v>
+        <v>5.290445092712883E-14</v>
       </c>
       <c r="I16">
-        <v>2.298237839805074E-13</v>
+        <v>2.557071012461552E-13</v>
       </c>
       <c r="J16">
-        <v>3.172036849946046E-25</v>
+        <v>3.529832535505949E-25</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9567,22 +9567,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>188.336609494706</v>
+        <v>78.68125767575114</v>
       </c>
       <c r="F17">
-        <v>2936297374653106</v>
+        <v>1226694963701185</v>
       </c>
       <c r="G17">
-        <v>2.132917434821133E-10</v>
+        <v>8.910674708465588E-11</v>
       </c>
       <c r="H17">
-        <v>3325.365090207369</v>
+        <v>1389.23551948039</v>
       </c>
       <c r="I17">
-        <v>1.90594135231527E-08</v>
+        <v>6.658004873524478E-09</v>
       </c>
       <c r="J17">
-        <v>2.652987070489753E-08</v>
+        <v>9.269104300688984E-09</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9599,22 +9599,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>40.16941916999886</v>
+        <v>8.833154742074427</v>
       </c>
       <c r="F18">
-        <v>626268893587.1665</v>
+        <v>137714962314.7847</v>
       </c>
       <c r="G18">
-        <v>4.549198093997606E-11</v>
+        <v>1.000357275433117E-11</v>
       </c>
       <c r="H18">
-        <v>0.7092512951157038</v>
+        <v>0.1559625847279555</v>
       </c>
       <c r="I18">
-        <v>4.065091609113765E-09</v>
+        <v>7.474612005274602E-10</v>
       </c>
       <c r="J18">
-        <v>5.658429870485999E-12</v>
+        <v>1.040596388860808E-12</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9631,22 +9631,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>3.802324261670604</v>
+        <v>1.045007688904676</v>
       </c>
       <c r="F19">
-        <v>59280852.39018298</v>
+        <v>16292389.15182532</v>
       </c>
       <c r="G19">
-        <v>4.306142991699438E-12</v>
+        <v>1.183474166369961E-12</v>
       </c>
       <c r="H19">
-        <v>6.713573317121515E-05</v>
+        <v>1.845117684238428E-05</v>
       </c>
       <c r="I19">
-        <v>3.84790140624961E-10</v>
+        <v>8.842850878503655E-11</v>
       </c>
       <c r="J19">
-        <v>5.3561105995726E-16</v>
+        <v>1.231079109512584E-16</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -9663,22 +9663,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>1049537.525768213</v>
+        <v>1393627.139634057</v>
       </c>
       <c r="F20">
-        <v>16363012426.42761</v>
+        <v>21727606344.46817</v>
       </c>
       <c r="G20">
-        <v>1.188604219443049E-06</v>
+        <v>1.578286681352273E-06</v>
       </c>
       <c r="H20">
-        <v>0.01853115790082402</v>
+        <v>0.02460657570154946</v>
       </c>
       <c r="I20">
-        <v>0.0001062117968744955</v>
+        <v>0.0001179286727443754</v>
       </c>
       <c r="J20">
-        <v>1.478421796658254E-13</v>
+        <v>1.641772856094042E-13</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9695,22 +9695,22 @@
         <v>5000</v>
       </c>
       <c r="E21">
-        <v>2271015.957782811</v>
+        <v>3021829.617924187</v>
       </c>
       <c r="F21">
-        <v>35406701.92865726</v>
+        <v>47112403.67746557</v>
       </c>
       <c r="G21">
-        <v>2.571932002019039E-06</v>
+        <v>3.422230597875636E-06</v>
       </c>
       <c r="H21">
-        <v>4.00981901796798E-05</v>
+        <v>5.335493055205614E-05</v>
       </c>
       <c r="I21">
-        <v>0.0002298237839854389</v>
+        <v>0.0002557071012516422</v>
       </c>
       <c r="J21">
-        <v>3.199046637315119E-16</v>
+        <v>3.559888941135056E-16</v>
       </c>
     </row>
   </sheetData>
@@ -9772,22 +9772,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>3.159926551275087E-05</v>
+        <v>1.118697194134002E-07</v>
       </c>
       <c r="F2">
-        <v>492654299.20923</v>
+        <v>1744125.925904915</v>
       </c>
       <c r="G2">
-        <v>7.14915509338255E-20</v>
+        <v>2.530989127000004E-22</v>
       </c>
       <c r="H2">
-        <v>1.11460248689871E-06</v>
+        <v>3.945986257703427E-09</v>
       </c>
       <c r="I2">
-        <v>3.197803496894456E-15</v>
+        <v>9.466411176645233E-18</v>
       </c>
       <c r="J2">
-        <v>4.45120271981201E-15</v>
+        <v>1.317889581283588E-17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9932,22 +9932,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>34992.19735607105</v>
+        <v>118.5623336899063</v>
       </c>
       <c r="F7">
-        <v>5.455524420113494E+17</v>
+        <v>1848468389021324</v>
       </c>
       <c r="G7">
-        <v>7.91678673214277E-11</v>
+        <v>2.68240573959064E-13</v>
       </c>
       <c r="H7">
-        <v>1234.281543012103</v>
+        <v>4.182055178781275</v>
       </c>
       <c r="I7">
-        <v>3.541163671165458E-06</v>
+        <v>1.003273992869987E-08</v>
       </c>
       <c r="J7">
-        <v>4.929145077143998E-06</v>
+        <v>1.396732423411077E-08</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10092,22 +10092,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.01805531935583132</v>
+        <v>5.535070048216083E-05</v>
       </c>
       <c r="F12">
-        <v>21461643.36316092</v>
+        <v>65793.18649745255</v>
       </c>
       <c r="G12">
-        <v>4.084913881409801E-17</v>
+        <v>1.252278291451602E-19</v>
       </c>
       <c r="H12">
-        <v>4.85557542152962E-08</v>
+        <v>1.488533631164085E-10</v>
       </c>
       <c r="I12">
-        <v>1.827174221828842E-12</v>
+        <v>4.683774058136296E-15</v>
       </c>
       <c r="J12">
-        <v>1.939090462887967E-16</v>
+        <v>4.971438914850913E-19</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10124,22 +10124,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>2.531824023007688E-05</v>
+        <v>6.849088438720415E-06</v>
       </c>
       <c r="F13">
-        <v>10435.79950276418</v>
+        <v>2823.091694906845</v>
       </c>
       <c r="G13">
-        <v>5.72810864933866E-20</v>
+        <v>1.549567520072492E-20</v>
       </c>
       <c r="H13">
-        <v>2.361040611485109E-11</v>
+        <v>6.387085282594672E-12</v>
       </c>
       <c r="I13">
-        <v>2.562172121066669E-15</v>
+        <v>5.79569589394789E-16</v>
       </c>
       <c r="J13">
-        <v>9.42889551652703E-20</v>
+        <v>2.133173457527509E-20</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10156,22 +10156,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>3.296993036990972E-06</v>
+        <v>9.527697938068392E-07</v>
       </c>
       <c r="F14">
-        <v>25.30783925806277</v>
+        <v>7.313495819089629</v>
       </c>
       <c r="G14">
-        <v>7.459260264685458E-21</v>
+        <v>2.155587768793754E-21</v>
       </c>
       <c r="H14">
-        <v>5.725755488249496E-14</v>
+        <v>1.65463706314245E-14</v>
       </c>
       <c r="I14">
-        <v>3.336512951122886E-16</v>
+        <v>8.062334179576634E-17</v>
       </c>
       <c r="J14">
-        <v>2.286599814898025E-22</v>
+        <v>5.526194983735802E-23</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10188,22 +10188,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>1.339435918662034E-11</v>
+        <v>3.975504018275512E-26</v>
       </c>
       <c r="F15">
-        <v>1.921681254691652E-07</v>
+        <v>5.703633479907467E-22</v>
       </c>
       <c r="G15">
-        <v>3.030398006022701E-26</v>
+        <v>8.994352982523783E-41</v>
       </c>
       <c r="H15">
-        <v>4.347695146361204E-22</v>
+        <v>1.290414814458703E-36</v>
       </c>
       <c r="I15">
-        <v>1.355491273313021E-21</v>
+        <v>3.364069908169756E-36</v>
       </c>
       <c r="J15">
-        <v>1.736266757688934E-30</v>
+        <v>4.309757126470292E-45</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10252,22 +10252,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>121010.0157097775</v>
+        <v>55305.80847703752</v>
       </c>
       <c r="F17">
-        <v>1.886629436457699E+18</v>
+        <v>8.622556213042452E+17</v>
       </c>
       <c r="G17">
-        <v>2.737783160854695E-10</v>
+        <v>1.251262635227093E-10</v>
       </c>
       <c r="H17">
-        <v>4268.392390175789</v>
+        <v>1950.804573086528</v>
       </c>
       <c r="I17">
-        <v>1.224605208750285E-05</v>
+        <v>4.679975298460579E-06</v>
       </c>
       <c r="J17">
-        <v>1.704596933857544E-05</v>
+        <v>6.515342056683714E-06</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10284,22 +10284,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>24082.51142137425</v>
+        <v>6847.410680306171</v>
       </c>
       <c r="F18">
-        <v>375462929121182.5</v>
+        <v>106755845598461.9</v>
       </c>
       <c r="G18">
-        <v>5.44853199578603E-11</v>
+        <v>1.549187936720853E-11</v>
       </c>
       <c r="H18">
-        <v>0.8494636405456618</v>
+        <v>0.241529062439959</v>
       </c>
       <c r="I18">
-        <v>2.437118014853728E-06</v>
+        <v>5.79427617544966E-07</v>
       </c>
       <c r="J18">
-        <v>3.392361771683246E-09</v>
+        <v>8.066643271891966E-10</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10316,22 +10316,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>3296.983816596242</v>
+        <v>952.7665928489492</v>
       </c>
       <c r="F19">
-        <v>51402247024.19018</v>
+        <v>14854286974.50451</v>
       </c>
       <c r="G19">
-        <v>7.459239404063896E-12</v>
+        <v>2.155580526807577E-12</v>
       </c>
       <c r="H19">
-        <v>0.0001162946765253171</v>
+        <v>3.360698410521382E-05</v>
       </c>
       <c r="I19">
-        <v>3.336503620206476E-07</v>
+        <v>8.062307093083788E-08</v>
       </c>
       <c r="J19">
-        <v>4.644267230099866E-13</v>
+        <v>1.122413797669977E-13</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10348,22 +10348,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>0.01339435970723236</v>
+        <v>3.975504172795423E-17</v>
       </c>
       <c r="F20">
-        <v>208.8272872121086</v>
+        <v>6.198084640485041E-13</v>
       </c>
       <c r="G20">
-        <v>3.030398123808226E-17</v>
+        <v>8.994353332116342E-32</v>
       </c>
       <c r="H20">
-        <v>4.724599258192502E-13</v>
+        <v>1.402281592869919E-27</v>
       </c>
       <c r="I20">
-        <v>1.355491325998262E-12</v>
+        <v>3.364070038924443E-27</v>
       </c>
       <c r="J20">
-        <v>1.886784689185732E-21</v>
+        <v>4.683372370243859E-36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -10457,22 +10457,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>4995.499051260848</v>
+        <v>5.256271701383608E-24</v>
       </c>
       <c r="F2">
-        <v>7.788326862553838E+16</v>
+        <v>8.194889373151818E-11</v>
       </c>
       <c r="G2">
-        <v>5.519888454431877E-09</v>
+        <v>5.808035029153157E-36</v>
       </c>
       <c r="H2">
-        <v>86058.86035971092</v>
+        <v>9.055126379173279E-23</v>
       </c>
       <c r="I2">
-        <v>5.055378368971528E-07</v>
+        <v>4.447855008698774E-34</v>
       </c>
       <c r="J2">
-        <v>7.036865763483646E-07</v>
+        <v>6.192190118981786E-34</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10489,22 +10489,22 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>46.53301902873316</v>
+        <v>8.957488606196419E-25</v>
       </c>
       <c r="F3">
-        <v>725481795468.9412</v>
+        <v>1.396534128358033E-14</v>
       </c>
       <c r="G3">
-        <v>5.141770058423553E-11</v>
+        <v>9.897777465410408E-37</v>
       </c>
       <c r="H3">
-        <v>0.8016373430596035</v>
+        <v>1.543131633544788E-26</v>
       </c>
       <c r="I3">
-        <v>4.709079421833216E-09</v>
+        <v>7.579823271301871E-35</v>
       </c>
       <c r="J3">
-        <v>6.554832762748273E-12</v>
+        <v>1.055243632546258E-37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10521,22 +10521,22 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>0.02925734741538758</v>
+        <v>5.86002250528493E-25</v>
       </c>
       <c r="F4">
-        <v>456142.1841223661</v>
+        <v>9.136178432775661E-18</v>
       </c>
       <c r="G4">
-        <v>3.232856067998627E-14</v>
+        <v>6.475162989265115E-37</v>
       </c>
       <c r="H4">
-        <v>5.040245128423935E-07</v>
+        <v>1.009522478759742E-29</v>
       </c>
       <c r="I4">
-        <v>2.96080451101085E-12</v>
+        <v>4.958748697172209E-35</v>
       </c>
       <c r="J4">
-        <v>4.121310488603216E-18</v>
+        <v>6.903443260873399E-41</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10553,22 +10553,22 @@
         <v>500</v>
       </c>
       <c r="E5">
-        <v>2.98953728989488E-06</v>
+        <v>2.83763377831156E-25</v>
       </c>
       <c r="F5">
-        <v>0.04660894405658631</v>
+        <v>4.424066375537792E-21</v>
       </c>
       <c r="G5">
-        <v>3.303356121430807E-18</v>
+        <v>3.135506937360839E-37</v>
       </c>
       <c r="H5">
-        <v>5.150159564263681E-14</v>
+        <v>4.88847113319093E-33</v>
       </c>
       <c r="I5">
-        <v>3.025371838425994E-16</v>
+        <v>2.401204566802278E-35</v>
       </c>
       <c r="J5">
-        <v>4.211185386695107E-25</v>
+        <v>3.342895657148875E-44</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10585,22 +10585,22 @@
         <v>5000</v>
       </c>
       <c r="E6">
-        <v>1.009333338563504E-05</v>
+        <v>1.789175706479161E-23</v>
       </c>
       <c r="F6">
-        <v>0.0001573620147524838</v>
+        <v>2.78944807588009E-22</v>
       </c>
       <c r="G6">
-        <v>1.115285456976248E-17</v>
+        <v>1.9769897309162E-35</v>
       </c>
       <c r="H6">
-        <v>1.738806792845125E-16</v>
+        <v>3.082263067270818E-34</v>
       </c>
       <c r="I6">
-        <v>1.021431867866712E-15</v>
+        <v>1.51399976630027E-33</v>
       </c>
       <c r="J6">
-        <v>1.421788522267361E-27</v>
+        <v>2.107751798269145E-45</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10617,22 +10617,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>38467.04966434275</v>
+        <v>2.808410269330567E-15</v>
       </c>
       <c r="F7">
-        <v>5.99727781248155E+17</v>
+        <v>0.04378504913573886</v>
       </c>
       <c r="G7">
-        <v>4.25050272534174E-08</v>
+        <v>3.103215767216096E-27</v>
       </c>
       <c r="H7">
-        <v>662682.6312134309</v>
+        <v>4.838126976324736E-14</v>
       </c>
       <c r="I7">
-        <v>3.892814087156905E-06</v>
+        <v>2.376475645205884E-25</v>
       </c>
       <c r="J7">
-        <v>5.418627088657295E-06</v>
+        <v>3.308468684223095E-25</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10649,22 +10649,22 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>13263.98725121824</v>
+        <v>8.816123811780721E-16</v>
       </c>
       <c r="F8">
-        <v>206794690887111.5</v>
+        <v>1.374494383890675E-05</v>
       </c>
       <c r="G8">
-        <v>1.465633950410855E-08</v>
+        <v>9.74157327268588E-28</v>
       </c>
       <c r="H8">
-        <v>228.5024208697365</v>
+        <v>1.518778324741077E-17</v>
       </c>
       <c r="I8">
-        <v>1.342297807447255E-06</v>
+        <v>7.460200438880551E-26</v>
       </c>
       <c r="J8">
-        <v>1.868419887935384E-09</v>
+        <v>1.038590047402964E-28</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10681,22 +10681,22 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>6956.114593043961</v>
+        <v>5.859997493803018E-16</v>
       </c>
       <c r="F9">
-        <v>108450614419.2602</v>
+        <v>9.136139438153815E-09</v>
       </c>
       <c r="G9">
-        <v>7.68631446745189E-09</v>
+        <v>6.475135352268528E-28</v>
       </c>
       <c r="H9">
-        <v>0.119834933059956</v>
+        <v>1.009518169961747E-20</v>
       </c>
       <c r="I9">
-        <v>7.039495130498702E-07</v>
+        <v>4.958727532466232E-26</v>
       </c>
       <c r="J9">
-        <v>9.79866958723681E-13</v>
+        <v>6.903413795910408E-32</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10713,22 +10713,22 @@
         <v>500</v>
       </c>
       <c r="E10">
-        <v>1156.140377010873</v>
+        <v>2.83763388004926E-16</v>
       </c>
       <c r="F10">
-        <v>18025024.25235017</v>
+        <v>4.424066534153869E-12</v>
       </c>
       <c r="G10">
-        <v>1.27750317901754E-09</v>
+        <v>3.135507049778188E-28</v>
       </c>
       <c r="H10">
-        <v>1.991715387000019E-05</v>
+        <v>4.888471308457314E-24</v>
       </c>
       <c r="I10">
-        <v>1.169998631460087E-07</v>
+        <v>2.40120465289268E-26</v>
       </c>
       <c r="J10">
-        <v>1.628586964642799E-16</v>
+        <v>3.342895777001732E-35</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10745,22 +10745,22 @@
         <v>5000</v>
       </c>
       <c r="E11">
-        <v>10091.12660862754</v>
+        <v>1.789175706574659E-14</v>
       </c>
       <c r="F11">
-        <v>157327.6095800058</v>
+        <v>2.789448076028978E-13</v>
       </c>
       <c r="G11">
-        <v>1.115041614212988E-08</v>
+        <v>1.976989731021723E-26</v>
       </c>
       <c r="H11">
-        <v>1.738426625193435E-07</v>
+        <v>3.082263067435335E-25</v>
       </c>
       <c r="I11">
-        <v>1.02120854497876E-06</v>
+        <v>1.513999766381081E-24</v>
       </c>
       <c r="J11">
-        <v>1.421477666566812E-18</v>
+        <v>2.107751798381647E-36</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10777,22 +10777,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.2742997246094574</v>
+        <v>4.148824369005897E-24</v>
       </c>
       <c r="F12">
-        <v>326049223.9523934</v>
+        <v>4.9315432881135E-15</v>
       </c>
       <c r="G12">
-        <v>3.030936183529916E-13</v>
+        <v>4.584336319343533E-36</v>
       </c>
       <c r="H12">
-        <v>0.0003602753855827551</v>
+        <v>5.449219102887845E-27</v>
       </c>
       <c r="I12">
-        <v>2.775876604471584E-11</v>
+        <v>3.510733519547122E-34</v>
       </c>
       <c r="J12">
-        <v>2.945901811430488E-15</v>
+        <v>3.7263533684827E-38</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10809,22 +10809,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0.0007704695407395722</v>
+        <v>4.477529089793463E-25</v>
       </c>
       <c r="F13">
-        <v>317576.0075375728</v>
+        <v>1.845570443453245E-16</v>
       </c>
       <c r="G13">
-        <v>8.513475588282566E-16</v>
+        <v>4.947545955572887E-37</v>
       </c>
       <c r="H13">
-        <v>3.509127155111302E-07</v>
+        <v>2.039304357406901E-28</v>
       </c>
       <c r="I13">
-        <v>7.797048923917165E-14</v>
+        <v>3.788883322639123E-35</v>
       </c>
       <c r="J13">
-        <v>2.8693450778107E-18</v>
+        <v>1.394542689163926E-39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10841,22 +10841,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>8.472938529807259E-09</v>
+        <v>4.405461130715964E-26</v>
       </c>
       <c r="F14">
-        <v>0.06503858635731657</v>
+        <v>3.381648092759026E-19</v>
       </c>
       <c r="G14">
-        <v>9.362363016361613E-21</v>
+        <v>4.867912851619851E-38</v>
       </c>
       <c r="H14">
-        <v>7.186584127880284E-14</v>
+        <v>3.736627726805553E-31</v>
       </c>
       <c r="I14">
-        <v>8.574500710675122E-19</v>
+        <v>3.72789944452925E-36</v>
       </c>
       <c r="J14">
-        <v>5.876330176172185E-25</v>
+        <v>2.555227648888008E-42</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10873,22 +10873,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>1.669784237014837E-10</v>
+        <v>4.955939696865054E-25</v>
       </c>
       <c r="F15">
-        <v>2.395630147694029E-06</v>
+        <v>7.110259089035845E-21</v>
       </c>
       <c r="G15">
-        <v>1.845065455265014E-22</v>
+        <v>5.476176460624369E-37</v>
       </c>
       <c r="H15">
-        <v>2.647105135573513E-18</v>
+        <v>7.856639877387674E-33</v>
       </c>
       <c r="I15">
-        <v>1.689799362592984E-20</v>
+        <v>4.193714186751012E-35</v>
       </c>
       <c r="J15">
-        <v>2.164486425104869E-29</v>
+        <v>5.372626044077353E-44</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10905,22 +10905,22 @@
         <v>5000</v>
       </c>
       <c r="E16">
-        <v>8.275509476032613E-06</v>
+        <v>5.407561669221685E-21</v>
       </c>
       <c r="F16">
-        <v>0.0001279315558843185</v>
+        <v>8.359579309135046E-20</v>
       </c>
       <c r="G16">
-        <v>9.144209365781893E-18</v>
+        <v>5.975206264333353E-33</v>
       </c>
       <c r="H16">
-        <v>1.413608352312911E-16</v>
+        <v>9.237104208989001E-32</v>
       </c>
       <c r="I16">
-        <v>8.374705143181831E-16</v>
+        <v>4.575876518895315E-31</v>
       </c>
       <c r="J16">
-        <v>1.155880077401326E-27</v>
+        <v>6.316632481514725E-43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10937,22 +10937,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>208.2703943794658</v>
+        <v>3.723672085143155E-15</v>
       </c>
       <c r="F17">
-        <v>3247078801488047</v>
+        <v>0.05805461082160047</v>
       </c>
       <c r="G17">
-        <v>2.301330324634981E-10</v>
+        <v>4.114554790213431E-27</v>
       </c>
       <c r="H17">
-        <v>3587.932377334859</v>
+        <v>6.414874123933754E-14</v>
       </c>
       <c r="I17">
-        <v>2.107668594947237E-08</v>
+        <v>3.150969827205866E-25</v>
       </c>
       <c r="J17">
-        <v>2.933782576509936E-08</v>
+        <v>4.386699699310117E-25</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10969,22 +10969,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>32.64111327501669</v>
+        <v>4.181372367442391E-16</v>
       </c>
       <c r="F18">
-        <v>508897422929.7688</v>
+        <v>6.519047325906783E-06</v>
       </c>
       <c r="G18">
-        <v>3.606752848068143E-11</v>
+        <v>4.62030095849988E-28</v>
       </c>
       <c r="H18">
-        <v>0.5623175943975346</v>
+        <v>7.203367210946722E-18</v>
       </c>
       <c r="I18">
-        <v>3.303237099965418E-09</v>
+        <v>3.538275622789382E-26</v>
       </c>
       <c r="J18">
-        <v>4.597961687711322E-12</v>
+        <v>4.925896933875153E-29</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11001,22 +11001,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>2.604546647074028</v>
+        <v>4.38245398426116E-17</v>
       </c>
       <c r="F19">
-        <v>40606674.94484118</v>
+        <v>6.832547407032831E-10</v>
       </c>
       <c r="G19">
-        <v>2.877952096214395E-12</v>
+        <v>4.842490590343823E-29</v>
       </c>
       <c r="H19">
-        <v>4.486925408269743E-05</v>
+        <v>7.549776140367769E-22</v>
       </c>
       <c r="I19">
-        <v>2.635766446051483E-10</v>
+        <v>3.708430806413011E-27</v>
       </c>
       <c r="J19">
-        <v>3.668871706734776E-16</v>
+        <v>5.162782633761311E-33</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11033,22 +11033,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>0.1669770286254093</v>
+        <v>4.955950777571474E-16</v>
       </c>
       <c r="F20">
-        <v>2603.286807039752</v>
+        <v>7.726668381753035E-12</v>
       </c>
       <c r="G20">
-        <v>1.845050040059771E-13</v>
+        <v>5.476188704498866E-28</v>
       </c>
       <c r="H20">
-        <v>2.876560007778731E-09</v>
+        <v>8.537755117959155E-24</v>
       </c>
       <c r="I20">
-        <v>1.6897852446093E-11</v>
+        <v>4.193723563240347E-26</v>
       </c>
       <c r="J20">
-        <v>2.352107214845344E-20</v>
+        <v>5.838394812612165E-35</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11065,22 +11065,22 @@
         <v>5000</v>
       </c>
       <c r="E21">
-        <v>8275.509476534948</v>
+        <v>5.407561669550252E-12</v>
       </c>
       <c r="F21">
-        <v>129020.8887961822</v>
+        <v>8.430760846855689E-11</v>
       </c>
       <c r="G21">
-        <v>9.144209366336958E-09</v>
+        <v>5.975206264696412E-24</v>
       </c>
       <c r="H21">
-        <v>1.425645180068312E-07</v>
+        <v>9.31575784182949E-23</v>
       </c>
       <c r="I21">
-        <v>8.374705143690187E-07</v>
+        <v>4.575876519173349E-22</v>
       </c>
       <c r="J21">
-        <v>1.165722357531331E-18</v>
+        <v>6.370418395449298E-34</v>
       </c>
     </row>
   </sheetData>
@@ -11142,22 +11142,22 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.0001124150656184469</v>
+        <v>8.207222219149362E-24</v>
       </c>
       <c r="F2">
-        <v>1752628248.604957</v>
+        <v>1.279562434512251E-10</v>
       </c>
       <c r="G2">
-        <v>4.132906824207607E-19</v>
+        <v>3.017361109981383E-38</v>
       </c>
       <c r="H2">
-        <v>6.443486208106459E-06</v>
+        <v>4.704273656295039E-25</v>
       </c>
       <c r="I2">
-        <v>1.137625460924818E-14</v>
+        <v>6.944948155046528E-34</v>
       </c>
       <c r="J2">
-        <v>1.583524926004256E-14</v>
+        <v>9.668579407020935E-34</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11302,22 +11302,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>107020.717753233</v>
+        <v>7.813390561322709E-15</v>
       </c>
       <c r="F7">
-        <v>1.668526652441102E+18</v>
+        <v>0.1218161368302434</v>
       </c>
       <c r="G7">
-        <v>3.934585211515917E-10</v>
+        <v>2.87257005930982E-29</v>
       </c>
       <c r="H7">
-        <v>6134.289163386406</v>
+        <v>4.478534442288361E-16</v>
       </c>
       <c r="I7">
-        <v>1.083035380469038E-05</v>
+        <v>6.611687963913844E-25</v>
       </c>
       <c r="J7">
-        <v>1.507537919662088E-05</v>
+        <v>9.204623082332758E-25</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11462,22 +11462,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.003589484143960299</v>
+        <v>4.414879559408075E-21</v>
       </c>
       <c r="F12">
-        <v>4266677.705178144</v>
+        <v>5.247792560629705E-12</v>
       </c>
       <c r="G12">
-        <v>1.319663288220698E-17</v>
+        <v>1.623117485076498E-35</v>
       </c>
       <c r="H12">
-        <v>1.568631509256671E-08</v>
+        <v>1.929335500231509E-26</v>
       </c>
       <c r="I12">
-        <v>3.632510047732495E-13</v>
+        <v>3.735869315116657E-31</v>
       </c>
       <c r="J12">
-        <v>3.85500490634801E-17</v>
+        <v>3.965316401568387E-35</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11494,22 +11494,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>4.255679379427118E-05</v>
+        <v>5.105048191626483E-22</v>
       </c>
       <c r="F13">
-        <v>17541.27314859372</v>
+        <v>2.104224420640196E-13</v>
       </c>
       <c r="G13">
-        <v>1.564588007142323E-19</v>
+        <v>1.876855952803854E-36</v>
       </c>
       <c r="H13">
-        <v>6.448997481100634E-11</v>
+        <v>7.736119193530133E-28</v>
       </c>
       <c r="I13">
-        <v>4.306690734853397E-15</v>
+        <v>4.319889735303721E-32</v>
       </c>
       <c r="J13">
-        <v>1.584879354007735E-19</v>
+        <v>1.589985791424668E-36</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11526,22 +11526,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>3.002702095543742E-06</v>
+        <v>5.545050422382356E-23</v>
       </c>
       <c r="F14">
-        <v>23.04885121723639</v>
+        <v>4.256401005189323E-16</v>
       </c>
       <c r="G14">
-        <v>1.103934593949905E-20</v>
+        <v>2.038621478817043E-37</v>
       </c>
       <c r="H14">
-        <v>8.473842359278084E-14</v>
+        <v>1.564853310731369E-30</v>
       </c>
       <c r="I14">
-        <v>3.03869444604258E-16</v>
+        <v>4.692219446758893E-33</v>
       </c>
       <c r="J14">
-        <v>2.082496984018664E-22</v>
+        <v>3.216205008588245E-39</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11558,22 +11558,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>1.897666315418029E-07</v>
+        <v>5.632356096457413E-22</v>
       </c>
       <c r="F15">
-        <v>0.00272257129675999</v>
+        <v>8.080709931328535E-18</v>
       </c>
       <c r="G15">
-        <v>6.976714394919225E-22</v>
+        <v>2.070719153109343E-36</v>
       </c>
       <c r="H15">
-        <v>1.000945329691173E-17</v>
+        <v>2.97084923945902E-32</v>
       </c>
       <c r="I15">
-        <v>1.920412984578359E-17</v>
+        <v>4.766097473197356E-32</v>
       </c>
       <c r="J15">
-        <v>2.459882473465104E-26</v>
+        <v>6.105914297643022E-41</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11622,22 +11622,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>430441.8846741654</v>
+        <v>4.413891464783684E-12</v>
       </c>
       <c r="F17">
-        <v>6.710885256458936E+18</v>
+        <v>68.81560603018285</v>
       </c>
       <c r="G17">
-        <v>1.582506928949137E-09</v>
+        <v>1.622754214994002E-26</v>
       </c>
       <c r="H17">
-        <v>24672.37226639315</v>
+        <v>2.529985515815546E-13</v>
       </c>
       <c r="I17">
-        <v>4.356014425289273E-05</v>
+        <v>3.735033189841207E-22</v>
       </c>
       <c r="J17">
-        <v>6.063381716924777E-05</v>
+        <v>5.199817792390196E-22</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11654,22 +11654,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>37329.70757242804</v>
+        <v>5.10456134644739E-13</v>
       </c>
       <c r="F18">
-        <v>581995835199367.6</v>
+        <v>0.007958362487538836</v>
       </c>
       <c r="G18">
-        <v>1.37241571957456E-10</v>
+        <v>1.876676965605658E-27</v>
       </c>
       <c r="H18">
-        <v>2.13969057058591</v>
+        <v>2.92586856159516E-17</v>
       </c>
       <c r="I18">
-        <v>3.77771658537407E-06</v>
+        <v>4.319477767108142E-23</v>
       </c>
       <c r="J18">
-        <v>5.258416396075069E-09</v>
+        <v>6.013466602741939E-26</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11686,22 +11686,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>3002.690800050532</v>
+        <v>5.545025186774438E-14</v>
       </c>
       <c r="F19">
-        <v>46814016333.51184</v>
+        <v>8.645075931861668E-07</v>
       </c>
       <c r="G19">
-        <v>1.103930441195048E-11</v>
+        <v>2.038612201020014E-28</v>
       </c>
       <c r="H19">
-        <v>0.0001721103541673229</v>
+        <v>3.178336739655025E-21</v>
       </c>
       <c r="I19">
-        <v>3.038683015154202E-07</v>
+        <v>4.692198092397579E-24</v>
       </c>
       <c r="J19">
-        <v>4.229713962986315E-13</v>
+        <v>6.53235831816144E-30</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11718,22 +11718,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>189.7666185419063</v>
+        <v>5.63235571061507E-13</v>
       </c>
       <c r="F20">
-        <v>2958592.199978303</v>
+        <v>8.781230229514319E-09</v>
       </c>
       <c r="G20">
-        <v>6.97671391698185E-13</v>
+        <v>2.070719011255541E-27</v>
       </c>
       <c r="H20">
-        <v>1.087717720580258E-08</v>
+        <v>3.228393466733206E-23</v>
       </c>
       <c r="I20">
-        <v>1.920412853021141E-08</v>
+        <v>4.76609714669772E-23</v>
       </c>
       <c r="J20">
-        <v>2.673130767050311E-17</v>
+        <v>6.635238693745741E-32</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11987,22 +11987,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>271790.4581710938</v>
+        <v>1.984293364045812E-14</v>
       </c>
       <c r="F7">
-        <v>4.237400317042346E+18</v>
+        <v>0.3093649934031054</v>
       </c>
       <c r="G7">
-        <v>9.992296256290214E-07</v>
+        <v>7.295196191344896E-26</v>
       </c>
       <c r="H7">
-        <v>15578677.63618509</v>
+        <v>1.137371299276123E-12</v>
       </c>
       <c r="I7">
-        <v>2.750483163006936E-05</v>
+        <v>1.67910824999318E-24</v>
       </c>
       <c r="J7">
-        <v>3.828552363478043E-05</v>
+        <v>2.337611611433873E-24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12147,22 +12147,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>1.806635692091237</v>
+        <v>4.181761399881104E-18</v>
       </c>
       <c r="F12">
-        <v>2147476327.982916</v>
+        <v>4.970694232838097E-09</v>
       </c>
       <c r="G12">
-        <v>6.642042985629546E-12</v>
+        <v>1.537412279368053E-29</v>
       </c>
       <c r="H12">
-        <v>0.007895133558760722</v>
+        <v>1.827461115014006E-20</v>
       </c>
       <c r="I12">
-        <v>1.828291208684095E-10</v>
+        <v>3.538604821883223E-28</v>
       </c>
       <c r="J12">
-        <v>1.940275866300687E-14</v>
+        <v>3.755936451552339E-32</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12179,22 +12179,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0.04212199543897967</v>
+        <v>1.153368423557145E-18</v>
       </c>
       <c r="F13">
-        <v>17362055.77729461</v>
+        <v>4.75401193435355E-10</v>
       </c>
       <c r="G13">
-        <v>1.5486027734919E-13</v>
+        <v>4.240325086607152E-30</v>
       </c>
       <c r="H13">
-        <v>6.383108741652432E-05</v>
+        <v>1.74779850527704E-21</v>
       </c>
       <c r="I13">
-        <v>4.26268972158826E-12</v>
+        <v>9.759798981173833E-29</v>
       </c>
       <c r="J13">
-        <v>1.568686805767628E-16</v>
+        <v>3.592207824289829E-33</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12211,22 +12211,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>0.01856019350134514</v>
+        <v>9.418011488820911E-19</v>
       </c>
       <c r="F14">
-        <v>142468.7248230516</v>
+        <v>7.229300099074509E-12</v>
       </c>
       <c r="G14">
-        <v>6.823600551965126E-14</v>
+        <v>3.462504223831217E-30</v>
       </c>
       <c r="H14">
-        <v>5.237820765553368E-07</v>
+        <v>2.657830918777393E-23</v>
       </c>
       <c r="I14">
-        <v>1.878266811539962E-12</v>
+        <v>7.969517550150233E-29</v>
       </c>
       <c r="J14">
-        <v>1.28722549755156E-18</v>
+        <v>5.462575344495001E-35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12243,22 +12243,22 @@
         <v>500</v>
       </c>
       <c r="E15">
-        <v>0.002117420696716515</v>
+        <v>6.284596650644147E-18</v>
       </c>
       <c r="F15">
-        <v>30.37851684043838</v>
+        <v>9.016475822825879E-14</v>
       </c>
       <c r="G15">
-        <v>7.784634914398951E-15</v>
+        <v>2.310513474501525E-29</v>
       </c>
       <c r="H15">
-        <v>1.116857236780823E-10</v>
+        <v>3.314880817215397E-25</v>
       </c>
       <c r="I15">
-        <v>2.142801485567602E-13</v>
+        <v>5.318023168943313E-28</v>
       </c>
       <c r="J15">
-        <v>2.744742855204152E-22</v>
+        <v>6.812994044929646E-37</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12307,22 +12307,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>255096423.3982584</v>
+        <v>2.655694763682091E-09</v>
       </c>
       <c r="F17">
-        <v>3.977128824381636E+21</v>
+        <v>41404.10928815683</v>
       </c>
       <c r="G17">
-        <v>0.0009378544977877148</v>
+        <v>9.763583690007686E-21</v>
       </c>
       <c r="H17">
-        <v>14621797148.46189</v>
+        <v>1.522209900299883E-07</v>
       </c>
       <c r="I17">
-        <v>0.02581541759124276</v>
+        <v>2.247247845485077E-19</v>
       </c>
       <c r="J17">
-        <v>0.03593393312216245</v>
+        <v>3.128561042682632E-19</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12339,22 +12339,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>43397791.04782544</v>
+        <v>6.067095021796351E-10</v>
       </c>
       <c r="F18">
-        <v>6.766014332601426E+17</v>
+        <v>9.459018738877907</v>
       </c>
       <c r="G18">
-        <v>0.0001595507023817112</v>
+        <v>2.230549640366305E-21</v>
       </c>
       <c r="H18">
-        <v>2487505.26933876</v>
+        <v>3.477580418705113E-11</v>
       </c>
       <c r="I18">
-        <v>0.004391798534501754</v>
+        <v>5.133973377716547E-20</v>
       </c>
       <c r="J18">
-        <v>6.11319163313987E-06</v>
+        <v>7.147386584868084E-23</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12371,22 +12371,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>22910899.71079469</v>
+        <v>4.362972810466508E-10</v>
       </c>
       <c r="F19">
-        <v>357196696129533.1</v>
+        <v>0.006802174916192166</v>
       </c>
       <c r="G19">
-        <v>8.423124893674517E-05</v>
+        <v>1.60403412149504E-21</v>
       </c>
       <c r="H19">
-        <v>1313.223147535048</v>
+        <v>2.500799601541237E-14</v>
       </c>
       <c r="I19">
-        <v>0.002318552473398911</v>
+        <v>3.691945844949724E-20</v>
       </c>
       <c r="J19">
-        <v>3.227323719435134E-09</v>
+        <v>5.139832691534074E-26</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -12403,22 +12403,22 @@
         <v>500</v>
       </c>
       <c r="E20">
-        <v>3740492.85248154</v>
+        <v>1.110194534743045E-08</v>
       </c>
       <c r="F20">
-        <v>58316858162.18849</v>
+        <v>0.0001730869694673919</v>
       </c>
       <c r="G20">
-        <v>1.375181195765272E-05</v>
+        <v>4.081597554202371E-20</v>
       </c>
       <c r="H20">
-        <v>0.2144002138315753</v>
+        <v>6.363491524536466E-16</v>
       </c>
       <c r="I20">
-        <v>0.0003785328845364322</v>
+        <v>9.394461706930092E-19</v>
       </c>
       <c r="J20">
-        <v>5.269012329316568E-13</v>
+        <v>1.307872959910706E-27</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -12672,22 +12672,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>245.7282455939658</v>
+        <v>59.38818946236801</v>
       </c>
       <c r="F7">
-        <v>3831072484268954</v>
+        <v>925902750780135.2</v>
       </c>
       <c r="G7">
-        <v>2.385711122271512E-11</v>
+        <v>5.765843637123108E-12</v>
       </c>
       <c r="H7">
-        <v>371.948784880481</v>
+        <v>89.8934709495277</v>
       </c>
       <c r="I7">
-        <v>2.486737050040112E-08</v>
+        <v>5.025426213949579E-09</v>
       </c>
       <c r="J7">
-        <v>3.461429300251083E-08</v>
+        <v>6.996269996398635E-09</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12832,22 +12832,22 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>1.858748818903245</v>
+        <v>2.373852157806096</v>
       </c>
       <c r="F12">
-        <v>2209421138.824343</v>
+        <v>2821704086.405437</v>
       </c>
       <c r="G12">
-        <v>1.804610503789558E-13</v>
+        <v>2.304710832821452E-13</v>
       </c>
       <c r="H12">
-        <v>0.000214506906681975</v>
+        <v>0.0002739518530490716</v>
       </c>
       <c r="I12">
-        <v>1.881028997505895E-10</v>
+        <v>2.008752745264083E-10</v>
       </c>
       <c r="J12">
-        <v>1.996243897217737E-14</v>
+        <v>2.13212495824214E-14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12864,22 +12864,22 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0.4014173212904729</v>
+        <v>0.512452223141207</v>
       </c>
       <c r="F13">
-        <v>165458208.9377436</v>
+        <v>211225132.8231894</v>
       </c>
       <c r="G13">
-        <v>3.897255546509446E-14</v>
+        <v>4.975264302341815E-14</v>
       </c>
       <c r="H13">
-        <v>1.606390378036346E-05</v>
+        <v>2.050729444885334E-05</v>
       </c>
       <c r="I13">
-        <v>4.062289717521131E-11</v>
+        <v>4.336368659971394E-11</v>
       </c>
       <c r="J13">
-        <v>1.494938805610874E-15</v>
+        <v>1.596051051809773E-15</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12896,22 +12896,22 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>0.2054110527722735</v>
+        <v>0.2745682059389262</v>
       </c>
       <c r="F14">
-        <v>1576742.761378292</v>
+        <v>2107595.600996122</v>
       </c>
       <c r="G14">
-        <v>1.994282065750228E-14</v>
+        <v>2.665710737271128E-14</v>
       </c>
       <c r="H14">
-        <v>1.530818214930381E-07</v>
+        <v>2.046209321355458E-07</v>
       </c>
       <c r="I14">
-        <v>2.078732439495758E-11</v>
+        <v>2.32339505907471E-11</v>
       </c>
       <c r="J14">
-        <v>1.424609848966373E-17</v>
+        <v>1.592533109483367E-17</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12992,22 +12992,22 @@
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>6464674986.729923</v>
+        <v>8261194764.822795</v>
       </c>
       <c r="F17">
-        <v>1.007887326975282E+23</v>
+        <v>1.287977125877325E+23</v>
       </c>
       <c r="G17">
-        <v>0.0006276383482262061</v>
+        <v>0.0008020577441575529</v>
       </c>
       <c r="H17">
-        <v>9785313854.12895</v>
+        <v>12504632290.07112</v>
       </c>
       <c r="I17">
-        <v>0.6542164807757711</v>
+        <v>0.6990619701580664</v>
       </c>
       <c r="J17">
-        <v>0.9106407511915567</v>
+        <v>0.9732162167388394</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13024,22 +13024,22 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>1439771582.183174</v>
+        <v>1832011019.304685</v>
       </c>
       <c r="F18">
-        <v>2.244702996516157E+19</v>
+        <v>2.856231276941997E+19</v>
       </c>
       <c r="G18">
-        <v>0.0001397836487556479</v>
+        <v>0.0001778651475053092</v>
       </c>
       <c r="H18">
-        <v>2179323.297588503</v>
+        <v>2773040.074700968</v>
       </c>
       <c r="I18">
-        <v>0.1457029625697084</v>
+        <v>0.1550246990858702</v>
       </c>
       <c r="J18">
-        <v>0.0002028121565020475</v>
+        <v>0.0002158214258334114</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13056,22 +13056,22 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>938103708.8651036</v>
+        <v>1253941542.342499</v>
       </c>
       <c r="F19">
-        <v>1.462568252069109E+16</v>
+        <v>1.954981173669393E+16</v>
       </c>
       <c r="G19">
-        <v>9.107802998690326E-05</v>
+        <v>0.0001217418973148057</v>
       </c>
       <c r="H19">
-        <v>1419.969176766125</v>
+        <v>1898.039974436304</v>
       </c>
       <c r="I19">
-        <v>0.09493484332564581</v>
+        <v>0.1061084830956403</v>
       </c>
       <c r="J19">
-        <v>1.321451531422817E-07</v>
+        <v>1.477215195369394E-07</v>
       </c>
     </row>
     <row r="20" spans="1:10">
